--- a/06-최종산출물/api 정의서v0.5.xlsx
+++ b/06-최종산출물/api 정의서v0.5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUIK\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUIK\Documents\GitHub\KSA-final-project\06-최종산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EA0CD3-5CD8-4F86-B8C6-9789213CF7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB6E898-B75E-4695-A53B-F84DC29328A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="253">
   <si>
     <t>Header</t>
   </si>
@@ -4684,41 +4684,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>흡연횟수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>증가</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="major"/>
@@ -7023,18 +6988,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>smokingUpdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>smokingGetByUserId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/smoking/update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>smokingGetByDate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -7043,10 +7000,69 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>흡연횟수</t>
     </r>
@@ -7064,13 +7080,32 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>등록</t>
-    </r>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 3,
+        "count": 8,
+        "date": "2022-02-21",
+        "userId": 3,
+        "provider": "uhmjunsik22"
+    }
+]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/smoking/{user_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/smoking/{day}/{user_id}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -7084,9 +7119,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
       </rPr>
       <t>남</t>
     </r>
@@ -7117,69 +7153,73 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이디로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>날짜와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>유저아이디로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>날짜별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
       </rPr>
       <t>흡연횟수</t>
     </r>
@@ -7191,141 +7231,16 @@
         <family val="2"/>
         <scheme val="major"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-    "id": 1,
-    "count": 1,
-    "date": "2022-02-20",
-    "userId": 1,
-    "provider": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>엄준식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>1"
-}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날짜와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유저아이디로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날짜별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>흡연횟수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
       </rPr>
       <t>총</t>
     </r>
@@ -7343,9 +7258,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
       </rPr>
       <t>흡연량</t>
     </r>
@@ -7363,29 +7279,102 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-    {
-        "id": 3,
-        "count": 8,
-        "date": "2022-02-21",
-        "userId": 3,
-        "provider": "uhmjunsik22"
-    }
-]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">요청
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>{day}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>값이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>오늘기준</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>불러오는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>일수</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
     "total": 22,
     "smokingList": [
         {
@@ -7393,40 +7382,10 @@
             "count": 22,
             "date": "2022-03-21",
             "userId": 1,
-            "provider": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>uhmjunsik22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>"
+            "provider": "uhmjunsik22"
         }
     ]
 }</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/smoking/{user_id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/smoking/{day}/{user_id}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -7440,9 +7399,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="major"/>
       </rPr>
       <t>남</t>
     </r>
@@ -7468,12 +7428,177 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>{    
+    "userId": 1,
+    "provider": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엄준식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1"
+}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> , int 2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">카운트추가성공, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">int 3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post/put</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흡연횟수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흡연카운트 추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오늘날짜 데이터가 있으면 오늘날짜의 흡연수만 카운트+1
+오늘날짜 데이터가 없으면 새로 생성</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7581,9 +7706,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="굴림"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -7949,7 +8087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8134,6 +8272,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8155,10 +8315,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8173,23 +8329,8 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8410,17 +8551,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N965"/>
+  <dimension ref="A1:N964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.85546875" customWidth="1"/>
     <col min="5" max="5" width="64.5703125" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" style="7" bestFit="1" customWidth="1"/>
@@ -8433,41 +8574,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="84"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="16" t="s">
         <v>0</v>
       </c>
@@ -8484,8 +8625,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="201.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:14" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="71" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -8509,13 +8650,13 @@
       <c r="H3" s="8"/>
       <c r="I3" s="20"/>
       <c r="J3" s="13" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K3" s="20"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="42" t="s">
         <v>154</v>
       </c>
@@ -8538,19 +8679,19 @@
       <c r="K4" s="20"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="86"/>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="59.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="72"/>
       <c r="B5" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>244</v>
+        <v>237</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>252</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>55</v>
@@ -8559,28 +8700,28 @@
         <v>73</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="8" t="s">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="K5" s="20"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="86"/>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="72"/>
       <c r="B6" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>209</v>
+        <v>243</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>241</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>55</v>
@@ -8588,28 +8729,26 @@
       <c r="G6" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>247</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="20"/>
       <c r="J6" s="8" t="s">
-        <v>84</v>
+        <v>242</v>
       </c>
       <c r="K6" s="20"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="86"/>
+    <row r="7" spans="1:14" ht="171" x14ac:dyDescent="0.2">
+      <c r="A7" s="73"/>
       <c r="B7" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="E7" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>246</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -8621,391 +8760,390 @@
       <c r="H7" s="8"/>
       <c r="I7" s="20"/>
       <c r="J7" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="171" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A8" s="73"/>
       <c r="B8" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="8" t="s">
-        <v>250</v>
+        <v>169</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A9" s="73"/>
-      <c r="B9" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="D9" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>82</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12" t="s">
-        <v>211</v>
+      <c r="H9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:14" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
-      <c r="B10" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="14" t="s">
+    <row r="10" spans="1:14" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>213</v>
       </c>
+      <c r="F10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:14" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="8" t="s">
-        <v>84</v>
+    <row r="11" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="47"/>
+      <c r="J11" s="50" t="s">
+        <v>69</v>
       </c>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
-        <v>71</v>
-      </c>
+    <row r="12" spans="1:14" ht="114" x14ac:dyDescent="0.2">
+      <c r="A12" s="85"/>
       <c r="B12" s="44" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C12" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>65</v>
+      <c r="D12" s="49" t="s">
+        <v>67</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F12" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50" t="s">
-        <v>64</v>
+      <c r="G12" s="47"/>
+      <c r="H12" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="I12" s="47"/>
       <c r="J12" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:14" ht="114" x14ac:dyDescent="0.2">
-      <c r="A13" s="79"/>
+    <row r="13" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="85"/>
       <c r="B13" s="44" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F13" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="46" t="s">
-        <v>70</v>
-      </c>
+      <c r="G13" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="46"/>
       <c r="I13" s="47"/>
       <c r="J13" s="50" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="79"/>
-      <c r="B14" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="45" t="s">
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="85"/>
+      <c r="B14" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="48" t="s">
+      <c r="D14" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="79"/>
-      <c r="B15" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="54" t="s">
+      <c r="H14" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="86"/>
+      <c r="B15" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="80"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" s="3" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="77" t="s">
+        <v>8</v>
+      </c>
       <c r="B16" s="18" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="24"/>
+      <c r="H16" s="24" t="s">
+        <v>248</v>
+      </c>
       <c r="I16" s="11"/>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+      <c r="A17" s="78"/>
+      <c r="B17" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="58"/>
+      <c r="J17" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="78"/>
+      <c r="B18" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="114" x14ac:dyDescent="0.2">
-      <c r="A18" s="70"/>
-      <c r="B18" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="58"/>
-      <c r="J18" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="70"/>
-      <c r="B19" s="18" t="s">
-        <v>161</v>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="79"/>
+      <c r="B19" s="40" t="s">
+        <v>159</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>203</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="63"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
-      <c r="B20" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="8"/>
+      <c r="G20" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="21"/>
       <c r="I20" s="21"/>
-      <c r="J20" s="64"/>
+      <c r="J20" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
-        <v>171</v>
-      </c>
+    <row r="21" spans="1:11" ht="228" x14ac:dyDescent="0.2">
+      <c r="A21" s="73"/>
       <c r="B21" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>55</v>
@@ -9013,26 +9151,28 @@
       <c r="G21" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="I21" s="21"/>
       <c r="J21" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" ht="228" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A22" s="73"/>
       <c r="B22" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>202</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>55</v>
@@ -9041,27 +9181,27 @@
         <v>73</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I22" s="21"/>
-      <c r="J22" s="9" t="s">
-        <v>118</v>
+      <c r="J22" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A23" s="73"/>
       <c r="B23" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>55</v>
@@ -9070,7 +9210,7 @@
         <v>73</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="8" t="s">
@@ -9078,45 +9218,37 @@
       </c>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="73"/>
       <c r="B24" s="18" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>121</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="21"/>
-      <c r="J24" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="J24" s="8"/>
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="73"/>
       <c r="B25" s="18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>218</v>
@@ -9128,40 +9260,48 @@
       <c r="J25" s="8"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A26" s="73"/>
       <c r="B26" s="18" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E26" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="9"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="8"/>
+      <c r="J26" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A27" s="73"/>
       <c r="B27" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>55</v>
@@ -9169,28 +9309,26 @@
       <c r="G27" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="114" x14ac:dyDescent="0.2">
       <c r="A28" s="73"/>
       <c r="B28" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>55</v>
@@ -9198,26 +9336,28 @@
       <c r="G28" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="I28" s="21"/>
-      <c r="J28" s="9" t="s">
-        <v>221</v>
+      <c r="J28" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" ht="114" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A29" s="73"/>
       <c r="B29" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>124</v>
+        <v>223</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>55</v>
@@ -9226,166 +9366,164 @@
         <v>73</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="I29" s="21"/>
-      <c r="J29" s="21" t="s">
-        <v>223</v>
+      <c r="J29" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A30" s="73"/>
       <c r="B30" s="18" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>224</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>73</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="I30" s="21"/>
-      <c r="J30" s="9" t="s">
-        <v>146</v>
+      <c r="J30" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="3" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A31" s="73"/>
       <c r="B31" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>198</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>73</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="I31" s="21"/>
-      <c r="J31" s="8" t="s">
-        <v>84</v>
+      <c r="J31" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="73"/>
       <c r="B32" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>148</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="21"/>
-      <c r="J32" s="9" t="s">
-        <v>228</v>
-      </c>
+      <c r="J32" s="8"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
+    <row r="33" spans="1:14" ht="114" x14ac:dyDescent="0.2">
+      <c r="A33" s="83"/>
       <c r="B33" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>52</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="9"/>
+      <c r="F33" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="I33" s="21"/>
-      <c r="J33" s="8"/>
+      <c r="J33" s="9" t="s">
+        <v>227</v>
+      </c>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:14" ht="114" x14ac:dyDescent="0.2">
-      <c r="A34" s="77"/>
+    <row r="34" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="80" t="s">
+        <v>9</v>
+      </c>
       <c r="B34" s="18" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>230</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>148</v>
-      </c>
+      <c r="H34" s="32"/>
       <c r="I34" s="21"/>
       <c r="J34" s="9" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="72" t="s">
-        <v>9</v>
-      </c>
+    <row r="35" spans="1:14" ht="228" x14ac:dyDescent="0.2">
+      <c r="A35" s="73"/>
       <c r="B35" s="18" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="F35" s="22" t="s">
         <v>55</v>
@@ -9393,26 +9531,28 @@
       <c r="G35" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="32"/>
+      <c r="H35" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="I35" s="21"/>
       <c r="J35" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:14" ht="228" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A36" s="73"/>
       <c r="B36" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>55</v>
@@ -9421,27 +9561,27 @@
         <v>73</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="I36" s="21"/>
-      <c r="J36" s="9" t="s">
-        <v>110</v>
+      <c r="J36" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:14" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="228" x14ac:dyDescent="0.2">
       <c r="A37" s="73"/>
       <c r="B37" s="18" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F37" s="22" t="s">
         <v>55</v>
@@ -9450,7 +9590,7 @@
         <v>73</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="8" t="s">
@@ -9458,19 +9598,19 @@
       </c>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:14" ht="228" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A38" s="73"/>
       <c r="B38" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D38" s="21" t="s">
         <v>194</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F38" s="22" t="s">
         <v>55</v>
@@ -9479,7 +9619,7 @@
         <v>73</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="8" t="s">
@@ -9487,19 +9627,19 @@
       </c>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" s="3" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A39" s="73"/>
       <c r="B39" s="18" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="F39" s="22" t="s">
         <v>55</v>
@@ -9508,53 +9648,45 @@
         <v>73</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I39" s="21"/>
-      <c r="J39" s="8" t="s">
-        <v>84</v>
+      <c r="J39" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:14" s="3" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="73"/>
       <c r="B40" s="18" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="E40" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="21"/>
-      <c r="J40" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J40" s="9"/>
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="73"/>
       <c r="B41" s="18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>233</v>
@@ -9569,10 +9701,10 @@
     <row r="42" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="73"/>
       <c r="B42" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>193</v>
@@ -9587,16 +9719,16 @@
       <c r="J42" s="9"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="73"/>
       <c r="B43" s="18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>235</v>
@@ -9608,16 +9740,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="73"/>
+    <row r="44" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="65" t="s">
+        <v>191</v>
+      </c>
       <c r="B44" s="18" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>236</v>
@@ -9629,150 +9763,154 @@
       <c r="J44" s="9"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="F45" s="22"/>
+    <row r="45" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="31"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="8"/>
       <c r="I45" s="21"/>
-      <c r="J45" s="9"/>
+      <c r="J45" s="21"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="31"/>
+    <row r="46" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A46" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="G46" s="20"/>
-      <c r="H46" s="8"/>
+      <c r="H46" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
+      <c r="J46" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:14" ht="57" x14ac:dyDescent="0.2">
-      <c r="A47" s="39" t="s">
-        <v>13</v>
+    <row r="47" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="74" t="s">
+        <v>15</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>125</v>
+        <v>27</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="F47" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I47" s="21"/>
-      <c r="J47" s="8" t="s">
-        <v>84</v>
+      <c r="G47" s="21"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="K47" s="21"/>
-    </row>
-    <row r="48" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="66" t="s">
-        <v>15</v>
-      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="228" x14ac:dyDescent="0.2">
+      <c r="A48" s="75"/>
       <c r="B48" s="18" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="C48" s="34" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F48" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G48" s="21"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="I48" s="8"/>
       <c r="J48" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K48" s="21"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A49" s="67"/>
+    </row>
+    <row r="49" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="75"/>
       <c r="B49" s="18" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I49" s="8"/>
-      <c r="J49" s="9" t="s">
-        <v>118</v>
+        <v>130</v>
+      </c>
+      <c r="I49" s="35"/>
+      <c r="J49" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="67"/>
+    <row r="50" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="75"/>
       <c r="B50" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I50" s="35"/>
       <c r="J50" s="8" t="s">
@@ -9780,130 +9918,130 @@
       </c>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="67"/>
+    <row r="51" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="76"/>
       <c r="B51" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>55</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="F51" s="22"/>
       <c r="G51" s="21"/>
       <c r="H51" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I51" s="35"/>
+        <v>57</v>
+      </c>
+      <c r="I51" s="9"/>
       <c r="J51" s="8" t="s">
         <v>84</v>
       </c>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="68"/>
+    <row r="52" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="74" t="s">
+        <v>16</v>
+      </c>
       <c r="B52" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="21"/>
-      <c r="H52" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I52" s="9"/>
-      <c r="J52" s="8" t="s">
-        <v>84</v>
+      <c r="H52" s="9"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="66" t="s">
-        <v>16</v>
-      </c>
+    <row r="53" spans="1:11" ht="228" x14ac:dyDescent="0.2">
+      <c r="A53" s="75"/>
       <c r="B53" s="18" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>41</v>
+        <v>52</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>53</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F53" s="22"/>
+        <v>136</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="G53" s="21"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="I53" s="20"/>
       <c r="J53" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A54" s="67"/>
+    <row r="54" spans="1:11" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="75"/>
       <c r="B54" s="18" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="9" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="I54" s="20"/>
-      <c r="J54" s="9" t="s">
-        <v>137</v>
+      <c r="J54" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="67"/>
+    <row r="55" spans="1:11" ht="228" x14ac:dyDescent="0.2">
+      <c r="A55" s="75"/>
       <c r="B55" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G55" s="21"/>
       <c r="H55" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="8" t="s">
@@ -9911,26 +10049,26 @@
       </c>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A56" s="67"/>
+    <row r="56" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="75"/>
       <c r="B56" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>45</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G56" s="21"/>
       <c r="H56" s="9" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="8" t="s">
@@ -9938,53 +10076,53 @@
       </c>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="67"/>
+    <row r="57" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="75"/>
       <c r="B57" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G57" s="21"/>
       <c r="H57" s="9" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="I57" s="20"/>
-      <c r="J57" s="8" t="s">
-        <v>84</v>
+      <c r="J57" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="K57" s="21"/>
     </row>
     <row r="58" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="67"/>
+      <c r="A58" s="75"/>
       <c r="B58" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C58" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F58" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I58" s="20"/>
       <c r="J58" s="9" t="s">
@@ -9992,38 +10130,16 @@
       </c>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="67"/>
-      <c r="B59" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F59" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59" s="21"/>
-      <c r="H59" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="I59" s="20"/>
-      <c r="J59" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="K59" s="21"/>
+    <row r="59" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C61" s="2"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
@@ -10033,38 +10149,36 @@
     <row r="63" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C63" s="2"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C64" s="2"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="6"/>
     </row>
     <row r="65" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C65" s="2"/>
-      <c r="D65" s="4"/>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C66" s="2"/>
-      <c r="D66" s="5"/>
+      <c r="D66" s="4"/>
     </row>
     <row r="67" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C67" s="2"/>
       <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
     </row>
     <row r="68" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C68" s="2"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="D68" s="3"/>
     </row>
     <row r="69" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C69" s="2"/>
-      <c r="D69" s="3"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="4"/>
     </row>
     <row r="70" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C70" s="2"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="4"/>
     </row>
     <row r="71" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C71" s="2"/>
@@ -12742,32 +12856,29 @@
     <row r="962" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C962" s="2"/>
     </row>
-    <row r="963" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C963" s="2"/>
     </row>
     <row r="964" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C964" s="2"/>
     </row>
-    <row r="965" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C965" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A20:A33"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A11:A15"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A21:A34"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A3:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/06-최종산출물/api 정의서v0.5.xlsx
+++ b/06-최종산출물/api 정의서v0.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUIK\Documents\GitHub\KSA-final-project\06-최종산출물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10\Desktop\KSA-final-project\06-최종산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB6E898-B75E-4695-A53B-F84DC29328A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22FA564-FFCF-4966-8AF6-53FBD34CAC2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="254">
   <si>
     <t>Header</t>
   </si>
@@ -564,44 +564,6 @@
     <t>{
  Long challengeId : 1251
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>메서드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>이름</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3923,38 +3885,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/user/save</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>getGoal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/user/goal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/challenge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>getStat</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/user/stat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>getUserInfo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>getUser</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>deleteUser</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3971,22 +3913,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>searchPost</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/post/search?keyword</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/challenge/list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>getUserChallegne</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4003,14 +3933,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/challenge/{target}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/custom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>addCustom</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4027,14 +3949,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/custom/invite</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/custom/search?username</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>addChat</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4055,10 +3969,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/comment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>deleteComment</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4071,63 +3981,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/like</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>stat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/stat/{user_id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/comment/{comment_id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/{post_id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/{category_id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/custom/user/{user_id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/custom/{custom_id}/progress</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/custom/{custom_id}/chat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/custom/{custom_id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/challenge/{challenge_id}/progress</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/challenge/{challenge_id}/proof</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/challenge/{challenge_id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/info/{user_id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/{user_id}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4855,125 +4709,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>유저의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>흡연기록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>기반</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>맞춤형</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>통계정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"> {
   Long messageId : 2,
   String callerName :  uhmjunsik22,
@@ -6980,15 +6715,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/smoking/save</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>smokingSave</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>smokingGetByUserId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -7098,14 +6825,6 @@
         "provider": "uhmjunsik22"
     }
 ]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/smoking/{user_id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/smoking/{day}/{user_id}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -7593,12 +7312,289 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흡연기록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞춤형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통계정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/{user_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/goal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/smoking/{day}/{user_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/challenge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/stat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/info/{user_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/info/{user_id}0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/challenge/all</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/challenge/{challenge_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/challenge/{challenge_id}/proof</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/challenge/{challenge_id}/progress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/challenge/{target}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/custom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/custom/{custom_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/custom/invite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/custom/search?username</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/custom/{custom_id}/chat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/custom/{custom_id}/progress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/custom/user/{user_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/post/{category_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/post/{post_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/post/search?keyword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/comment/{comment_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/like</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/stat/{user_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨트롤러 메서드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userGetById</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/smoking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>smokingGetAllByUserId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/smoking/user/{user_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7722,6 +7718,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="16">
@@ -8087,7 +8091,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8272,28 +8276,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8315,6 +8300,10 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8329,8 +8318,29 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8553,11 +8563,11 @@
   </sheetPr>
   <dimension ref="A1:N964"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -8573,42 +8583,42 @@
     <col min="12" max="12" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A1" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="D1" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="67" t="s">
+      <c r="F1" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="G1" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="70"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+    </row>
+    <row r="2" spans="1:14" ht="15">
+      <c r="A2" s="76"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="16" t="s">
         <v>0</v>
       </c>
@@ -8625,24 +8635,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:14" ht="199.5">
+      <c r="A3" s="86" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>73</v>
@@ -8650,24 +8660,24 @@
       <c r="H3" s="8"/>
       <c r="I3" s="20"/>
       <c r="J3" s="13" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="K3" s="20"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="72"/>
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="14.25">
+      <c r="A4" s="87"/>
       <c r="B4" s="42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>55</v>
@@ -8679,19 +8689,19 @@
       <c r="K4" s="20"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="59.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="72"/>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="59.25">
+      <c r="A5" s="87"/>
       <c r="B5" s="18" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>252</v>
+      <c r="E5" s="66" t="s">
+        <v>219</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>55</v>
@@ -8700,28 +8710,28 @@
         <v>73</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="8" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="K5" s="20"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="72"/>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="128.25">
+      <c r="A6" s="87"/>
       <c r="B6" s="18" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>55</v>
@@ -8732,24 +8742,24 @@
       <c r="H6" s="8"/>
       <c r="I6" s="20"/>
       <c r="J6" s="8" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="K6" s="20"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="171" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
+    <row r="7" spans="1:14" ht="171">
+      <c r="A7" s="74"/>
       <c r="B7" s="18" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>55</v>
@@ -8760,23 +8770,23 @@
       <c r="H7" s="8"/>
       <c r="I7" s="20"/>
       <c r="J7" s="8" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="128.25">
+      <c r="A8" s="74"/>
       <c r="B8" s="18" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>82</v>
@@ -8785,27 +8795,27 @@
         <v>74</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="12" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="1:14" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
+    <row r="9" spans="1:14" ht="128.25">
+      <c r="A9" s="74"/>
       <c r="B9" s="25" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>211</v>
+        <v>225</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>220</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>82</v>
@@ -8818,25 +8828,25 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:14" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="199.5">
       <c r="A10" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>55</v>
@@ -8845,7 +8855,7 @@
         <v>73</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="8" t="s">
@@ -8853,8 +8863,8 @@
       </c>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="84" t="s">
+    <row r="11" spans="1:14" ht="71.25">
+      <c r="A11" s="79" t="s">
         <v>71</v>
       </c>
       <c r="B11" s="44" t="s">
@@ -8867,7 +8877,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="48" t="s">
         <v>61</v>
@@ -8882,8 +8892,8 @@
       </c>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:14" ht="114" x14ac:dyDescent="0.2">
-      <c r="A12" s="85"/>
+    <row r="12" spans="1:14" ht="114">
+      <c r="A12" s="80"/>
       <c r="B12" s="44" t="s">
         <v>66</v>
       </c>
@@ -8894,7 +8904,7 @@
         <v>67</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="48" t="s">
         <v>61</v>
@@ -8909,8 +8919,8 @@
       </c>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="85"/>
+    <row r="13" spans="1:14" ht="71.25">
+      <c r="A13" s="80"/>
       <c r="B13" s="44" t="s">
         <v>76</v>
       </c>
@@ -8921,7 +8931,7 @@
         <v>72</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="48" t="s">
         <v>61</v>
@@ -8936,8 +8946,8 @@
       </c>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="85"/>
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="42.75">
+      <c r="A14" s="80"/>
       <c r="B14" s="51" t="s">
         <v>78</v>
       </c>
@@ -8948,7 +8958,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>61</v>
@@ -8965,8 +8975,8 @@
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="86"/>
+    <row r="15" spans="1:14" ht="14.25">
+      <c r="A15" s="81"/>
       <c r="B15" s="18" t="s">
         <v>79</v>
       </c>
@@ -8977,7 +8987,7 @@
         <v>80</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>61</v>
@@ -8992,21 +9002,21 @@
       </c>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
+    <row r="16" spans="1:14" s="3" customFormat="1" ht="199.5">
+      <c r="A16" s="70" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>86</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>82</v>
@@ -9015,7 +9025,7 @@
         <v>74</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="12" t="s">
@@ -9023,8 +9033,8 @@
       </c>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="114" x14ac:dyDescent="0.2">
-      <c r="A17" s="78"/>
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="114">
+      <c r="A17" s="71"/>
       <c r="B17" s="56" t="s">
         <v>87</v>
       </c>
@@ -9035,7 +9045,7 @@
         <v>88</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="59" t="s">
         <v>82</v>
@@ -9048,23 +9058,23 @@
       </c>
       <c r="I17" s="58"/>
       <c r="J17" s="62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="78"/>
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="42.75">
+      <c r="A18" s="71"/>
       <c r="B18" s="18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>55</v>
@@ -9073,7 +9083,7 @@
         <v>74</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18" s="11" t="s">
@@ -9081,19 +9091,19 @@
       </c>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="79"/>
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="14.25">
+      <c r="A19" s="72"/>
       <c r="B19" s="40" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="41"/>
@@ -9102,9 +9112,9 @@
       <c r="J19" s="64"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
-        <v>171</v>
+    <row r="20" spans="1:11" ht="128.25">
+      <c r="A20" s="77" t="s">
+        <v>162</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>22</v>
@@ -9113,10 +9123,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>55</v>
@@ -9127,12 +9137,12 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A21" s="73"/>
+    <row r="21" spans="1:11" ht="228">
+      <c r="A21" s="74"/>
       <c r="B21" s="18" t="s">
         <v>21</v>
       </c>
@@ -9140,10 +9150,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>55</v>
@@ -9156,12 +9166,12 @@
       </c>
       <c r="I21" s="21"/>
       <c r="J21" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A22" s="73"/>
+    <row r="22" spans="1:11" ht="57">
+      <c r="A22" s="74"/>
       <c r="B22" s="18" t="s">
         <v>24</v>
       </c>
@@ -9169,10 +9179,10 @@
         <v>7</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>55</v>
@@ -9189,8 +9199,8 @@
       </c>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="73"/>
+    <row r="23" spans="1:11" ht="71.25">
+      <c r="A23" s="74"/>
       <c r="B23" s="18" t="s">
         <v>25</v>
       </c>
@@ -9198,10 +9208,10 @@
         <v>11</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>55</v>
@@ -9210,7 +9220,7 @@
         <v>73</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="8" t="s">
@@ -9218,19 +9228,19 @@
       </c>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="73"/>
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="14.25">
+      <c r="A24" s="74"/>
       <c r="B24" s="18" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="20"/>
@@ -9239,19 +9249,19 @@
       <c r="J24" s="8"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="14.25">
+      <c r="A25" s="74"/>
       <c r="B25" s="18" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="20"/>
@@ -9260,19 +9270,19 @@
       <c r="J25" s="8"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
+    <row r="26" spans="1:11" ht="128.25">
+      <c r="A26" s="74"/>
       <c r="B26" s="18" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>55</v>
@@ -9281,7 +9291,7 @@
         <v>73</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="8" t="s">
@@ -9289,19 +9299,19 @@
       </c>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="73"/>
+    <row r="27" spans="1:11" ht="142.5">
+      <c r="A27" s="74"/>
       <c r="B27" s="18" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>55</v>
@@ -9312,23 +9322,23 @@
       <c r="H27" s="8"/>
       <c r="I27" s="21"/>
       <c r="J27" s="9" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" ht="114" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
+    <row r="28" spans="1:11" ht="114">
+      <c r="A28" s="74"/>
       <c r="B28" s="18" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>55</v>
@@ -9337,27 +9347,27 @@
         <v>73</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="73"/>
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="85.5">
+      <c r="A29" s="74"/>
       <c r="B29" s="18" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>55</v>
@@ -9366,36 +9376,36 @@
         <v>73</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="85.5">
+      <c r="A30" s="74"/>
+      <c r="B30" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="22" t="s">
         <v>146</v>
-      </c>
-      <c r="K29" s="21"/>
-    </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
-      <c r="B30" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>147</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>73</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="8" t="s">
@@ -9403,19 +9413,19 @@
       </c>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" s="3" customFormat="1" ht="114" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
+    <row r="31" spans="1:11" s="3" customFormat="1" ht="114">
+      <c r="A31" s="74"/>
       <c r="B31" s="18" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>52</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>55</v>
@@ -9424,27 +9434,27 @@
         <v>73</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="9" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="73"/>
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="14.25">
+      <c r="A32" s="74"/>
       <c r="B32" s="18" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="20"/>
@@ -9453,37 +9463,37 @@
       <c r="J32" s="8"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:14" ht="114" x14ac:dyDescent="0.2">
-      <c r="A33" s="83"/>
+    <row r="33" spans="1:14" ht="114">
+      <c r="A33" s="78"/>
       <c r="B33" s="18" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>52</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>73</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="9" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="80" t="s">
+    <row r="34" spans="1:14" ht="142.5">
+      <c r="A34" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -9493,10 +9503,10 @@
         <v>4</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="F34" s="22" t="s">
         <v>55</v>
@@ -9507,23 +9517,23 @@
       <c r="H34" s="32"/>
       <c r="I34" s="21"/>
       <c r="J34" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:14" ht="228" x14ac:dyDescent="0.2">
-      <c r="A35" s="73"/>
+    <row r="35" spans="1:14" ht="228">
+      <c r="A35" s="74"/>
       <c r="B35" s="18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F35" s="22" t="s">
         <v>55</v>
@@ -9536,23 +9546,23 @@
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:14" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
+    <row r="36" spans="1:14" ht="213.75">
+      <c r="A36" s="74"/>
       <c r="B36" s="18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>55</v>
@@ -9561,7 +9571,7 @@
         <v>73</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="8" t="s">
@@ -9569,8 +9579,8 @@
       </c>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:14" ht="228" x14ac:dyDescent="0.2">
-      <c r="A37" s="73"/>
+    <row r="37" spans="1:14" ht="228">
+      <c r="A37" s="74"/>
       <c r="B37" s="18" t="s">
         <v>19</v>
       </c>
@@ -9578,10 +9588,10 @@
         <v>5</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F37" s="22" t="s">
         <v>55</v>
@@ -9590,7 +9600,7 @@
         <v>73</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="8" t="s">
@@ -9598,8 +9608,8 @@
       </c>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="73"/>
+    <row r="38" spans="1:14" ht="42.75">
+      <c r="A38" s="74"/>
       <c r="B38" s="18" t="s">
         <v>20</v>
       </c>
@@ -9607,10 +9617,10 @@
         <v>10</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F38" s="22" t="s">
         <v>55</v>
@@ -9627,19 +9637,19 @@
       </c>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:14" s="3" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="73"/>
+    <row r="39" spans="1:14" s="3" customFormat="1" ht="142.5">
+      <c r="A39" s="74"/>
       <c r="B39" s="18" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="F39" s="22" t="s">
         <v>55</v>
@@ -9652,23 +9662,23 @@
       </c>
       <c r="I39" s="21"/>
       <c r="J39" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
+    <row r="40" spans="1:14" s="3" customFormat="1" ht="14.25">
+      <c r="A40" s="74"/>
       <c r="B40" s="18" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="20"/>
@@ -9677,19 +9687,19 @@
       <c r="J40" s="9"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="73"/>
+    <row r="41" spans="1:14" s="3" customFormat="1" ht="14.25">
+      <c r="A41" s="74"/>
       <c r="B41" s="18" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="20"/>
@@ -9698,19 +9708,19 @@
       <c r="J41" s="9"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="73"/>
+    <row r="42" spans="1:14" s="3" customFormat="1" ht="14.25">
+      <c r="A42" s="74"/>
       <c r="B42" s="18" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>86</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="20"/>
@@ -9719,19 +9729,19 @@
       <c r="J42" s="9"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="73"/>
+    <row r="43" spans="1:14" ht="14.25">
+      <c r="A43" s="74"/>
       <c r="B43" s="18" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="20"/>
@@ -9740,21 +9750,21 @@
       <c r="J43" s="9"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" s="3" customFormat="1" ht="14.25">
       <c r="A44" s="65" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>52</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="20"/>
@@ -9763,7 +9773,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="14.25">
       <c r="A45" s="33" t="s">
         <v>12</v>
       </c>
@@ -9778,7 +9788,7 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="57">
       <c r="A46" s="39" t="s">
         <v>13</v>
       </c>
@@ -9792,7 +9802,7 @@
         <v>14</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F46" s="22" t="s">
         <v>55</v>
@@ -9807,8 +9817,8 @@
       </c>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="74" t="s">
+    <row r="47" spans="1:14" ht="142.5">
+      <c r="A47" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="18" t="s">
@@ -9821,7 +9831,7 @@
         <v>37</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F47" s="22" t="s">
         <v>55</v>
@@ -9830,15 +9840,15 @@
       <c r="H47" s="9"/>
       <c r="I47" s="8"/>
       <c r="J47" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K47" s="21"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" ht="228" x14ac:dyDescent="0.2">
-      <c r="A48" s="75"/>
+    <row r="48" spans="1:14" ht="228">
+      <c r="A48" s="68"/>
       <c r="B48" s="18" t="s">
         <v>92</v>
       </c>
@@ -9849,7 +9859,7 @@
         <v>93</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F48" s="22" t="s">
         <v>55</v>
@@ -9860,12 +9870,12 @@
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="75"/>
+    <row r="49" spans="1:11" ht="142.5">
+      <c r="A49" s="68"/>
       <c r="B49" s="18" t="s">
         <v>28</v>
       </c>
@@ -9876,14 +9886,14 @@
         <v>38</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I49" s="35"/>
       <c r="J49" s="8" t="s">
@@ -9891,8 +9901,8 @@
       </c>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="75"/>
+    <row r="50" spans="1:11" ht="156.75">
+      <c r="A50" s="68"/>
       <c r="B50" s="18" t="s">
         <v>29</v>
       </c>
@@ -9903,14 +9913,14 @@
         <v>39</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I50" s="35"/>
       <c r="J50" s="8" t="s">
@@ -9918,8 +9928,8 @@
       </c>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="76"/>
+    <row r="51" spans="1:11" ht="42.75">
+      <c r="A51" s="69"/>
       <c r="B51" s="18" t="s">
         <v>30</v>
       </c>
@@ -9930,7 +9940,7 @@
         <v>40</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F51" s="22"/>
       <c r="G51" s="21"/>
@@ -9943,8 +9953,8 @@
       </c>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="74" t="s">
+    <row r="52" spans="1:11" ht="142.5">
+      <c r="A52" s="67" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="18" t="s">
@@ -9957,19 +9967,19 @@
         <v>41</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="21"/>
       <c r="H52" s="9"/>
       <c r="I52" s="20"/>
       <c r="J52" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A53" s="75"/>
+    <row r="53" spans="1:11" ht="228">
+      <c r="A53" s="68"/>
       <c r="B53" s="18" t="s">
         <v>51</v>
       </c>
@@ -9980,7 +9990,7 @@
         <v>53</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F53" s="22" t="s">
         <v>55</v>
@@ -9991,12 +10001,12 @@
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="75"/>
+    <row r="54" spans="1:11" ht="213.75">
+      <c r="A54" s="68"/>
       <c r="B54" s="18" t="s">
         <v>32</v>
       </c>
@@ -10007,14 +10017,14 @@
         <v>43</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="8" t="s">
@@ -10022,8 +10032,8 @@
       </c>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A55" s="75"/>
+    <row r="55" spans="1:11" ht="228">
+      <c r="A55" s="68"/>
       <c r="B55" s="18" t="s">
         <v>33</v>
       </c>
@@ -10034,14 +10044,14 @@
         <v>44</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G55" s="21"/>
       <c r="H55" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="8" t="s">
@@ -10049,8 +10059,8 @@
       </c>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="75"/>
+    <row r="56" spans="1:11" ht="42.75">
+      <c r="A56" s="68"/>
       <c r="B56" s="18" t="s">
         <v>34</v>
       </c>
@@ -10061,7 +10071,7 @@
         <v>45</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>55</v>
@@ -10076,8 +10086,8 @@
       </c>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="75"/>
+    <row r="57" spans="1:11" ht="142.5">
+      <c r="A57" s="68"/>
       <c r="B57" s="18" t="s">
         <v>35</v>
       </c>
@@ -10088,23 +10098,23 @@
         <v>46</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G57" s="21"/>
       <c r="H57" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I57" s="20"/>
       <c r="J57" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="75"/>
+    <row r="58" spans="1:11" ht="142.5">
+      <c r="A58" s="68"/>
       <c r="B58" s="18" t="s">
         <v>36</v>
       </c>
@@ -10115,2755 +10125,2760 @@
         <v>47</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F58" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I58" s="20"/>
       <c r="J58" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="12.75">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="12.75">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="12.75">
       <c r="C61" s="2"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="12.75">
       <c r="C62" s="2"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="12.75">
       <c r="C63" s="2"/>
       <c r="D63" s="4"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="12.75">
       <c r="C64" s="2"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:5" ht="12.75">
       <c r="C65" s="2"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:5" ht="12.75">
       <c r="C66" s="2"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:5" ht="12.75">
       <c r="C67" s="2"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:5" ht="12.75">
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:5" ht="12.75">
       <c r="C69" s="2"/>
       <c r="D69" s="5"/>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:5" ht="12.75">
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:5" ht="12.75">
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:5" ht="12.75">
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:5" ht="12.75">
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:5" ht="12.75">
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:5" ht="12.75">
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:5" ht="12.75">
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:5" ht="12.75">
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:5" ht="12.75">
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:5" ht="12.75">
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:5" ht="12.75">
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:3" ht="12.75">
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3" ht="12.75">
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:3" ht="12.75">
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:3" ht="12.75">
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:3" ht="12.75">
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:3" ht="12.75">
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:3" ht="12.75">
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:3" ht="12.75">
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:3" ht="12.75">
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:3" ht="12.75">
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:3" ht="12.75">
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:3" ht="12.75">
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:3" ht="12.75">
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:3" ht="12.75">
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:3" ht="12.75">
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:3" ht="12.75">
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:3" ht="12.75">
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:3" ht="12.75">
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:3" ht="12.75">
       <c r="C99" s="2"/>
     </row>
-    <row r="100" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:3" ht="12.75">
       <c r="C100" s="2"/>
     </row>
-    <row r="101" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:3" ht="12.75">
       <c r="C101" s="2"/>
     </row>
-    <row r="102" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:3" ht="12.75">
       <c r="C102" s="2"/>
     </row>
-    <row r="103" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:3" ht="12.75">
       <c r="C103" s="2"/>
     </row>
-    <row r="104" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:3" ht="12.75">
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:3" ht="12.75">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:3" ht="12.75">
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:3" ht="12.75">
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:3" ht="12.75">
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:3" ht="12.75">
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:3" ht="12.75">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:3" ht="12.75">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:3" ht="12.75">
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:3" ht="12.75">
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:3" ht="12.75">
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:3" ht="12.75">
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:3" ht="12.75">
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:3" ht="12.75">
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:3" ht="12.75">
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:3" ht="12.75">
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:3" ht="12.75">
       <c r="C120" s="2"/>
     </row>
-    <row r="121" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:3" ht="12.75">
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:3" ht="12.75">
       <c r="C122" s="2"/>
     </row>
-    <row r="123" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:3" ht="12.75">
       <c r="C123" s="2"/>
     </row>
-    <row r="124" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:3" ht="12.75">
       <c r="C124" s="2"/>
     </row>
-    <row r="125" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:3" ht="12.75">
       <c r="C125" s="2"/>
     </row>
-    <row r="126" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:3" ht="12.75">
       <c r="C126" s="2"/>
     </row>
-    <row r="127" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:3" ht="12.75">
       <c r="C127" s="2"/>
     </row>
-    <row r="128" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:3" ht="12.75">
       <c r="C128" s="2"/>
     </row>
-    <row r="129" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:3" ht="12.75">
       <c r="C129" s="2"/>
     </row>
-    <row r="130" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:3" ht="12.75">
       <c r="C130" s="2"/>
     </row>
-    <row r="131" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:3" ht="12.75">
       <c r="C131" s="2"/>
     </row>
-    <row r="132" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:3" ht="12.75">
       <c r="C132" s="2"/>
     </row>
-    <row r="133" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:3" ht="12.75">
       <c r="C133" s="2"/>
     </row>
-    <row r="134" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:3" ht="12.75">
       <c r="C134" s="2"/>
     </row>
-    <row r="135" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:3" ht="12.75">
       <c r="C135" s="2"/>
     </row>
-    <row r="136" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:3" ht="12.75">
       <c r="C136" s="2"/>
     </row>
-    <row r="137" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:3" ht="12.75">
       <c r="C137" s="2"/>
     </row>
-    <row r="138" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:3" ht="12.75">
       <c r="C138" s="2"/>
     </row>
-    <row r="139" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:3" ht="12.75">
       <c r="C139" s="2"/>
     </row>
-    <row r="140" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:3" ht="12.75">
       <c r="C140" s="2"/>
     </row>
-    <row r="141" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:3" ht="12.75">
       <c r="C141" s="2"/>
     </row>
-    <row r="142" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:3" ht="12.75">
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:3" ht="12.75">
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:3" ht="12.75">
       <c r="C144" s="2"/>
     </row>
-    <row r="145" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:3" ht="12.75">
       <c r="C145" s="2"/>
     </row>
-    <row r="146" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:3" ht="12.75">
       <c r="C146" s="2"/>
     </row>
-    <row r="147" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:3" ht="12.75">
       <c r="C147" s="2"/>
     </row>
-    <row r="148" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:3" ht="12.75">
       <c r="C148" s="2"/>
     </row>
-    <row r="149" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:3" ht="12.75">
       <c r="C149" s="2"/>
     </row>
-    <row r="150" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:3" ht="12.75">
       <c r="C150" s="2"/>
     </row>
-    <row r="151" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:3" ht="12.75">
       <c r="C151" s="2"/>
     </row>
-    <row r="152" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:3" ht="12.75">
       <c r="C152" s="2"/>
     </row>
-    <row r="153" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:3" ht="12.75">
       <c r="C153" s="2"/>
     </row>
-    <row r="154" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:3" ht="12.75">
       <c r="C154" s="2"/>
     </row>
-    <row r="155" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:3" ht="12.75">
       <c r="C155" s="2"/>
     </row>
-    <row r="156" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:3" ht="12.75">
       <c r="C156" s="2"/>
     </row>
-    <row r="157" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:3" ht="12.75">
       <c r="C157" s="2"/>
     </row>
-    <row r="158" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:3" ht="12.75">
       <c r="C158" s="2"/>
     </row>
-    <row r="159" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:3" ht="12.75">
       <c r="C159" s="2"/>
     </row>
-    <row r="160" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:3" ht="12.75">
       <c r="C160" s="2"/>
     </row>
-    <row r="161" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:3" ht="12.75">
       <c r="C161" s="2"/>
     </row>
-    <row r="162" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:3" ht="12.75">
       <c r="C162" s="2"/>
     </row>
-    <row r="163" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:3" ht="12.75">
       <c r="C163" s="2"/>
     </row>
-    <row r="164" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:3" ht="12.75">
       <c r="C164" s="2"/>
     </row>
-    <row r="165" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:3" ht="12.75">
       <c r="C165" s="2"/>
     </row>
-    <row r="166" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:3" ht="12.75">
       <c r="C166" s="2"/>
     </row>
-    <row r="167" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:3" ht="12.75">
       <c r="C167" s="2"/>
     </row>
-    <row r="168" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:3" ht="12.75">
       <c r="C168" s="2"/>
     </row>
-    <row r="169" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:3" ht="12.75">
       <c r="C169" s="2"/>
     </row>
-    <row r="170" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:3" ht="12.75">
       <c r="C170" s="2"/>
     </row>
-    <row r="171" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:3" ht="12.75">
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:3" ht="12.75">
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:3" ht="12.75">
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:3" ht="12.75">
       <c r="C174" s="2"/>
     </row>
-    <row r="175" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:3" ht="12.75">
       <c r="C175" s="2"/>
     </row>
-    <row r="176" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:3" ht="12.75">
       <c r="C176" s="2"/>
     </row>
-    <row r="177" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:3" ht="12.75">
       <c r="C177" s="2"/>
     </row>
-    <row r="178" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:3" ht="12.75">
       <c r="C178" s="2"/>
     </row>
-    <row r="179" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:3" ht="12.75">
       <c r="C179" s="2"/>
     </row>
-    <row r="180" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:3" ht="12.75">
       <c r="C180" s="2"/>
     </row>
-    <row r="181" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:3" ht="12.75">
       <c r="C181" s="2"/>
     </row>
-    <row r="182" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:3" ht="12.75">
       <c r="C182" s="2"/>
     </row>
-    <row r="183" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:3" ht="12.75">
       <c r="C183" s="2"/>
     </row>
-    <row r="184" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:3" ht="12.75">
       <c r="C184" s="2"/>
     </row>
-    <row r="185" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:3" ht="12.75">
       <c r="C185" s="2"/>
     </row>
-    <row r="186" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:3" ht="12.75">
       <c r="C186" s="2"/>
     </row>
-    <row r="187" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:3" ht="12.75">
       <c r="C187" s="2"/>
     </row>
-    <row r="188" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:3" ht="12.75">
       <c r="C188" s="2"/>
     </row>
-    <row r="189" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:3" ht="12.75">
       <c r="C189" s="2"/>
     </row>
-    <row r="190" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:3" ht="12.75">
       <c r="C190" s="2"/>
     </row>
-    <row r="191" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:3" ht="12.75">
       <c r="C191" s="2"/>
     </row>
-    <row r="192" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:3" ht="12.75">
       <c r="C192" s="2"/>
     </row>
-    <row r="193" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:3" ht="12.75">
       <c r="C193" s="2"/>
     </row>
-    <row r="194" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:3" ht="12.75">
       <c r="C194" s="2"/>
     </row>
-    <row r="195" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:3" ht="12.75">
       <c r="C195" s="2"/>
     </row>
-    <row r="196" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:3" ht="12.75">
       <c r="C196" s="2"/>
     </row>
-    <row r="197" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:3" ht="12.75">
       <c r="C197" s="2"/>
     </row>
-    <row r="198" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:3" ht="12.75">
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:3" ht="12.75">
       <c r="C199" s="2"/>
     </row>
-    <row r="200" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:3" ht="12.75">
       <c r="C200" s="2"/>
     </row>
-    <row r="201" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:3" ht="12.75">
       <c r="C201" s="2"/>
     </row>
-    <row r="202" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:3" ht="12.75">
       <c r="C202" s="2"/>
     </row>
-    <row r="203" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:3" ht="12.75">
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:3" ht="12.75">
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:3" ht="12.75">
       <c r="C205" s="2"/>
     </row>
-    <row r="206" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:3" ht="12.75">
       <c r="C206" s="2"/>
     </row>
-    <row r="207" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:3" ht="12.75">
       <c r="C207" s="2"/>
     </row>
-    <row r="208" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:3" ht="12.75">
       <c r="C208" s="2"/>
     </row>
-    <row r="209" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:3" ht="12.75">
       <c r="C209" s="2"/>
     </row>
-    <row r="210" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:3" ht="12.75">
       <c r="C210" s="2"/>
     </row>
-    <row r="211" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:3" ht="12.75">
       <c r="C211" s="2"/>
     </row>
-    <row r="212" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:3" ht="12.75">
       <c r="C212" s="2"/>
     </row>
-    <row r="213" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:3" ht="12.75">
       <c r="C213" s="2"/>
     </row>
-    <row r="214" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:3" ht="12.75">
       <c r="C214" s="2"/>
     </row>
-    <row r="215" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:3" ht="12.75">
       <c r="C215" s="2"/>
     </row>
-    <row r="216" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:3" ht="12.75">
       <c r="C216" s="2"/>
     </row>
-    <row r="217" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:3" ht="12.75">
       <c r="C217" s="2"/>
     </row>
-    <row r="218" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:3" ht="12.75">
       <c r="C218" s="2"/>
     </row>
-    <row r="219" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:3" ht="12.75">
       <c r="C219" s="2"/>
     </row>
-    <row r="220" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:3" ht="12.75">
       <c r="C220" s="2"/>
     </row>
-    <row r="221" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:3" ht="12.75">
       <c r="C221" s="2"/>
     </row>
-    <row r="222" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:3" ht="12.75">
       <c r="C222" s="2"/>
     </row>
-    <row r="223" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:3" ht="12.75">
       <c r="C223" s="2"/>
     </row>
-    <row r="224" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:3" ht="12.75">
       <c r="C224" s="2"/>
     </row>
-    <row r="225" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:3" ht="12.75">
       <c r="C225" s="2"/>
     </row>
-    <row r="226" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:3" ht="12.75">
       <c r="C226" s="2"/>
     </row>
-    <row r="227" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:3" ht="12.75">
       <c r="C227" s="2"/>
     </row>
-    <row r="228" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:3" ht="12.75">
       <c r="C228" s="2"/>
     </row>
-    <row r="229" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:3" ht="12.75">
       <c r="C229" s="2"/>
     </row>
-    <row r="230" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:3" ht="12.75">
       <c r="C230" s="2"/>
     </row>
-    <row r="231" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:3" ht="12.75">
       <c r="C231" s="2"/>
     </row>
-    <row r="232" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:3" ht="12.75">
       <c r="C232" s="2"/>
     </row>
-    <row r="233" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:3" ht="12.75">
       <c r="C233" s="2"/>
     </row>
-    <row r="234" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:3" ht="12.75">
       <c r="C234" s="2"/>
     </row>
-    <row r="235" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:3" ht="12.75">
       <c r="C235" s="2"/>
     </row>
-    <row r="236" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:3" ht="12.75">
       <c r="C236" s="2"/>
     </row>
-    <row r="237" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:3" ht="12.75">
       <c r="C237" s="2"/>
     </row>
-    <row r="238" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:3" ht="12.75">
       <c r="C238" s="2"/>
     </row>
-    <row r="239" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:3" ht="12.75">
       <c r="C239" s="2"/>
     </row>
-    <row r="240" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:3" ht="12.75">
       <c r="C240" s="2"/>
     </row>
-    <row r="241" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:3" ht="12.75">
       <c r="C241" s="2"/>
     </row>
-    <row r="242" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:3" ht="12.75">
       <c r="C242" s="2"/>
     </row>
-    <row r="243" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:3" ht="12.75">
       <c r="C243" s="2"/>
     </row>
-    <row r="244" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:3" ht="12.75">
       <c r="C244" s="2"/>
     </row>
-    <row r="245" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:3" ht="12.75">
       <c r="C245" s="2"/>
     </row>
-    <row r="246" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:3" ht="12.75">
       <c r="C246" s="2"/>
     </row>
-    <row r="247" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:3" ht="12.75">
       <c r="C247" s="2"/>
     </row>
-    <row r="248" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:3" ht="12.75">
       <c r="C248" s="2"/>
     </row>
-    <row r="249" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:3" ht="12.75">
       <c r="C249" s="2"/>
     </row>
-    <row r="250" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:3" ht="12.75">
       <c r="C250" s="2"/>
     </row>
-    <row r="251" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:3" ht="12.75">
       <c r="C251" s="2"/>
     </row>
-    <row r="252" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:3" ht="12.75">
       <c r="C252" s="2"/>
     </row>
-    <row r="253" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:3" ht="12.75">
       <c r="C253" s="2"/>
     </row>
-    <row r="254" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:3" ht="12.75">
       <c r="C254" s="2"/>
     </row>
-    <row r="255" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:3" ht="12.75">
       <c r="C255" s="2"/>
     </row>
-    <row r="256" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:3" ht="12.75">
       <c r="C256" s="2"/>
     </row>
-    <row r="257" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:3" ht="12.75">
       <c r="C257" s="2"/>
     </row>
-    <row r="258" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:3" ht="12.75">
       <c r="C258" s="2"/>
     </row>
-    <row r="259" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:3" ht="12.75">
       <c r="C259" s="2"/>
     </row>
-    <row r="260" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:3" ht="12.75">
       <c r="C260" s="2"/>
     </row>
-    <row r="261" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:3" ht="12.75">
       <c r="C261" s="2"/>
     </row>
-    <row r="262" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:3" ht="12.75">
       <c r="C262" s="2"/>
     </row>
-    <row r="263" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:3" ht="12.75">
       <c r="C263" s="2"/>
     </row>
-    <row r="264" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:3" ht="12.75">
       <c r="C264" s="2"/>
     </row>
-    <row r="265" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:3" ht="12.75">
       <c r="C265" s="2"/>
     </row>
-    <row r="266" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:3" ht="12.75">
       <c r="C266" s="2"/>
     </row>
-    <row r="267" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:3" ht="12.75">
       <c r="C267" s="2"/>
     </row>
-    <row r="268" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:3" ht="12.75">
       <c r="C268" s="2"/>
     </row>
-    <row r="269" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:3" ht="12.75">
       <c r="C269" s="2"/>
     </row>
-    <row r="270" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:3" ht="12.75">
       <c r="C270" s="2"/>
     </row>
-    <row r="271" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:3" ht="12.75">
       <c r="C271" s="2"/>
     </row>
-    <row r="272" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:3" ht="12.75">
       <c r="C272" s="2"/>
     </row>
-    <row r="273" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:3" ht="12.75">
       <c r="C273" s="2"/>
     </row>
-    <row r="274" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:3" ht="12.75">
       <c r="C274" s="2"/>
     </row>
-    <row r="275" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:3" ht="12.75">
       <c r="C275" s="2"/>
     </row>
-    <row r="276" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:3" ht="12.75">
       <c r="C276" s="2"/>
     </row>
-    <row r="277" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:3" ht="12.75">
       <c r="C277" s="2"/>
     </row>
-    <row r="278" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:3" ht="12.75">
       <c r="C278" s="2"/>
     </row>
-    <row r="279" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:3" ht="12.75">
       <c r="C279" s="2"/>
     </row>
-    <row r="280" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:3" ht="12.75">
       <c r="C280" s="2"/>
     </row>
-    <row r="281" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:3" ht="12.75">
       <c r="C281" s="2"/>
     </row>
-    <row r="282" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:3" ht="12.75">
       <c r="C282" s="2"/>
     </row>
-    <row r="283" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:3" ht="12.75">
       <c r="C283" s="2"/>
     </row>
-    <row r="284" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:3" ht="12.75">
       <c r="C284" s="2"/>
     </row>
-    <row r="285" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:3" ht="12.75">
       <c r="C285" s="2"/>
     </row>
-    <row r="286" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:3" ht="12.75">
       <c r="C286" s="2"/>
     </row>
-    <row r="287" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:3" ht="12.75">
       <c r="C287" s="2"/>
     </row>
-    <row r="288" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:3" ht="12.75">
       <c r="C288" s="2"/>
     </row>
-    <row r="289" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:3" ht="12.75">
       <c r="C289" s="2"/>
     </row>
-    <row r="290" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:3" ht="12.75">
       <c r="C290" s="2"/>
     </row>
-    <row r="291" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:3" ht="12.75">
       <c r="C291" s="2"/>
     </row>
-    <row r="292" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:3" ht="12.75">
       <c r="C292" s="2"/>
     </row>
-    <row r="293" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:3" ht="12.75">
       <c r="C293" s="2"/>
     </row>
-    <row r="294" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:3" ht="12.75">
       <c r="C294" s="2"/>
     </row>
-    <row r="295" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:3" ht="12.75">
       <c r="C295" s="2"/>
     </row>
-    <row r="296" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:3" ht="12.75">
       <c r="C296" s="2"/>
     </row>
-    <row r="297" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:3" ht="12.75">
       <c r="C297" s="2"/>
     </row>
-    <row r="298" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:3" ht="12.75">
       <c r="C298" s="2"/>
     </row>
-    <row r="299" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:3" ht="12.75">
       <c r="C299" s="2"/>
     </row>
-    <row r="300" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:3" ht="12.75">
       <c r="C300" s="2"/>
     </row>
-    <row r="301" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:3" ht="12.75">
       <c r="C301" s="2"/>
     </row>
-    <row r="302" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:3" ht="12.75">
       <c r="C302" s="2"/>
     </row>
-    <row r="303" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:3" ht="12.75">
       <c r="C303" s="2"/>
     </row>
-    <row r="304" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:3" ht="12.75">
       <c r="C304" s="2"/>
     </row>
-    <row r="305" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:3" ht="12.75">
       <c r="C305" s="2"/>
     </row>
-    <row r="306" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:3" ht="12.75">
       <c r="C306" s="2"/>
     </row>
-    <row r="307" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:3" ht="12.75">
       <c r="C307" s="2"/>
     </row>
-    <row r="308" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:3" ht="12.75">
       <c r="C308" s="2"/>
     </row>
-    <row r="309" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:3" ht="12.75">
       <c r="C309" s="2"/>
     </row>
-    <row r="310" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="3:3" ht="12.75">
       <c r="C310" s="2"/>
     </row>
-    <row r="311" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="3:3" ht="12.75">
       <c r="C311" s="2"/>
     </row>
-    <row r="312" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="3:3" ht="12.75">
       <c r="C312" s="2"/>
     </row>
-    <row r="313" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="3:3" ht="12.75">
       <c r="C313" s="2"/>
     </row>
-    <row r="314" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="3:3" ht="12.75">
       <c r="C314" s="2"/>
     </row>
-    <row r="315" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="3:3" ht="12.75">
       <c r="C315" s="2"/>
     </row>
-    <row r="316" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="3:3" ht="12.75">
       <c r="C316" s="2"/>
     </row>
-    <row r="317" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="3:3" ht="12.75">
       <c r="C317" s="2"/>
     </row>
-    <row r="318" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="3:3" ht="12.75">
       <c r="C318" s="2"/>
     </row>
-    <row r="319" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="3:3" ht="12.75">
       <c r="C319" s="2"/>
     </row>
-    <row r="320" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="3:3" ht="12.75">
       <c r="C320" s="2"/>
     </row>
-    <row r="321" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="3:3" ht="12.75">
       <c r="C321" s="2"/>
     </row>
-    <row r="322" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:3" ht="12.75">
       <c r="C322" s="2"/>
     </row>
-    <row r="323" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="3:3" ht="12.75">
       <c r="C323" s="2"/>
     </row>
-    <row r="324" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="3:3" ht="12.75">
       <c r="C324" s="2"/>
     </row>
-    <row r="325" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="3:3" ht="12.75">
       <c r="C325" s="2"/>
     </row>
-    <row r="326" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="3:3" ht="12.75">
       <c r="C326" s="2"/>
     </row>
-    <row r="327" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="3:3" ht="12.75">
       <c r="C327" s="2"/>
     </row>
-    <row r="328" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="3:3" ht="12.75">
       <c r="C328" s="2"/>
     </row>
-    <row r="329" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="3:3" ht="12.75">
       <c r="C329" s="2"/>
     </row>
-    <row r="330" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="3:3" ht="12.75">
       <c r="C330" s="2"/>
     </row>
-    <row r="331" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="3:3" ht="12.75">
       <c r="C331" s="2"/>
     </row>
-    <row r="332" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="3:3" ht="12.75">
       <c r="C332" s="2"/>
     </row>
-    <row r="333" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="3:3" ht="12.75">
       <c r="C333" s="2"/>
     </row>
-    <row r="334" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="3:3" ht="12.75">
       <c r="C334" s="2"/>
     </row>
-    <row r="335" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="3:3" ht="12.75">
       <c r="C335" s="2"/>
     </row>
-    <row r="336" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="3:3" ht="12.75">
       <c r="C336" s="2"/>
     </row>
-    <row r="337" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="3:3" ht="12.75">
       <c r="C337" s="2"/>
     </row>
-    <row r="338" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="3:3" ht="12.75">
       <c r="C338" s="2"/>
     </row>
-    <row r="339" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="3:3" ht="12.75">
       <c r="C339" s="2"/>
     </row>
-    <row r="340" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="3:3" ht="12.75">
       <c r="C340" s="2"/>
     </row>
-    <row r="341" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="3:3" ht="12.75">
       <c r="C341" s="2"/>
     </row>
-    <row r="342" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="3:3" ht="12.75">
       <c r="C342" s="2"/>
     </row>
-    <row r="343" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="3:3" ht="12.75">
       <c r="C343" s="2"/>
     </row>
-    <row r="344" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="3:3" ht="12.75">
       <c r="C344" s="2"/>
     </row>
-    <row r="345" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="3:3" ht="12.75">
       <c r="C345" s="2"/>
     </row>
-    <row r="346" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="3:3" ht="12.75">
       <c r="C346" s="2"/>
     </row>
-    <row r="347" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="3:3" ht="12.75">
       <c r="C347" s="2"/>
     </row>
-    <row r="348" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="3:3" ht="12.75">
       <c r="C348" s="2"/>
     </row>
-    <row r="349" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="3:3" ht="12.75">
       <c r="C349" s="2"/>
     </row>
-    <row r="350" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="3:3" ht="12.75">
       <c r="C350" s="2"/>
     </row>
-    <row r="351" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="3:3" ht="12.75">
       <c r="C351" s="2"/>
     </row>
-    <row r="352" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="3:3" ht="12.75">
       <c r="C352" s="2"/>
     </row>
-    <row r="353" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:3" ht="12.75">
       <c r="C353" s="2"/>
     </row>
-    <row r="354" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:3" ht="12.75">
       <c r="C354" s="2"/>
     </row>
-    <row r="355" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:3" ht="12.75">
       <c r="C355" s="2"/>
     </row>
-    <row r="356" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:3" ht="12.75">
       <c r="C356" s="2"/>
     </row>
-    <row r="357" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:3" ht="12.75">
       <c r="C357" s="2"/>
     </row>
-    <row r="358" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:3" ht="12.75">
       <c r="C358" s="2"/>
     </row>
-    <row r="359" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:3" ht="12.75">
       <c r="C359" s="2"/>
     </row>
-    <row r="360" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:3" ht="12.75">
       <c r="C360" s="2"/>
     </row>
-    <row r="361" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:3" ht="12.75">
       <c r="C361" s="2"/>
     </row>
-    <row r="362" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="3:3" ht="12.75">
       <c r="C362" s="2"/>
     </row>
-    <row r="363" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="3:3" ht="12.75">
       <c r="C363" s="2"/>
     </row>
-    <row r="364" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="3:3" ht="12.75">
       <c r="C364" s="2"/>
     </row>
-    <row r="365" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="3:3" ht="12.75">
       <c r="C365" s="2"/>
     </row>
-    <row r="366" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="3:3" ht="12.75">
       <c r="C366" s="2"/>
     </row>
-    <row r="367" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="3:3" ht="12.75">
       <c r="C367" s="2"/>
     </row>
-    <row r="368" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="3:3" ht="12.75">
       <c r="C368" s="2"/>
     </row>
-    <row r="369" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:3" ht="12.75">
       <c r="C369" s="2"/>
     </row>
-    <row r="370" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:3" ht="12.75">
       <c r="C370" s="2"/>
     </row>
-    <row r="371" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="3:3" ht="12.75">
       <c r="C371" s="2"/>
     </row>
-    <row r="372" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="3:3" ht="12.75">
       <c r="C372" s="2"/>
     </row>
-    <row r="373" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="3:3" ht="12.75">
       <c r="C373" s="2"/>
     </row>
-    <row r="374" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="3:3" ht="12.75">
       <c r="C374" s="2"/>
     </row>
-    <row r="375" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="3:3" ht="12.75">
       <c r="C375" s="2"/>
     </row>
-    <row r="376" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="3:3" ht="12.75">
       <c r="C376" s="2"/>
     </row>
-    <row r="377" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="3:3" ht="12.75">
       <c r="C377" s="2"/>
     </row>
-    <row r="378" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="3:3" ht="12.75">
       <c r="C378" s="2"/>
     </row>
-    <row r="379" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="3:3" ht="12.75">
       <c r="C379" s="2"/>
     </row>
-    <row r="380" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="3:3" ht="12.75">
       <c r="C380" s="2"/>
     </row>
-    <row r="381" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="3:3" ht="12.75">
       <c r="C381" s="2"/>
     </row>
-    <row r="382" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="3:3" ht="12.75">
       <c r="C382" s="2"/>
     </row>
-    <row r="383" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="3:3" ht="12.75">
       <c r="C383" s="2"/>
     </row>
-    <row r="384" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="3:3" ht="12.75">
       <c r="C384" s="2"/>
     </row>
-    <row r="385" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="3:3" ht="12.75">
       <c r="C385" s="2"/>
     </row>
-    <row r="386" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="3:3" ht="12.75">
       <c r="C386" s="2"/>
     </row>
-    <row r="387" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="3:3" ht="12.75">
       <c r="C387" s="2"/>
     </row>
-    <row r="388" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="3:3" ht="12.75">
       <c r="C388" s="2"/>
     </row>
-    <row r="389" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="3:3" ht="12.75">
       <c r="C389" s="2"/>
     </row>
-    <row r="390" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="3:3" ht="12.75">
       <c r="C390" s="2"/>
     </row>
-    <row r="391" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="3:3" ht="12.75">
       <c r="C391" s="2"/>
     </row>
-    <row r="392" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="3:3" ht="12.75">
       <c r="C392" s="2"/>
     </row>
-    <row r="393" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="3:3" ht="12.75">
       <c r="C393" s="2"/>
     </row>
-    <row r="394" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="3:3" ht="12.75">
       <c r="C394" s="2"/>
     </row>
-    <row r="395" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="3:3" ht="12.75">
       <c r="C395" s="2"/>
     </row>
-    <row r="396" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="3:3" ht="12.75">
       <c r="C396" s="2"/>
     </row>
-    <row r="397" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="3:3" ht="12.75">
       <c r="C397" s="2"/>
     </row>
-    <row r="398" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="3:3" ht="12.75">
       <c r="C398" s="2"/>
     </row>
-    <row r="399" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="3:3" ht="12.75">
       <c r="C399" s="2"/>
     </row>
-    <row r="400" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="3:3" ht="12.75">
       <c r="C400" s="2"/>
     </row>
-    <row r="401" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="3:3" ht="12.75">
       <c r="C401" s="2"/>
     </row>
-    <row r="402" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="3:3" ht="12.75">
       <c r="C402" s="2"/>
     </row>
-    <row r="403" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="3:3" ht="12.75">
       <c r="C403" s="2"/>
     </row>
-    <row r="404" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="3:3" ht="12.75">
       <c r="C404" s="2"/>
     </row>
-    <row r="405" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="3:3" ht="12.75">
       <c r="C405" s="2"/>
     </row>
-    <row r="406" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="3:3" ht="12.75">
       <c r="C406" s="2"/>
     </row>
-    <row r="407" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="3:3" ht="12.75">
       <c r="C407" s="2"/>
     </row>
-    <row r="408" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="3:3" ht="12.75">
       <c r="C408" s="2"/>
     </row>
-    <row r="409" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="3:3" ht="12.75">
       <c r="C409" s="2"/>
     </row>
-    <row r="410" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="3:3" ht="12.75">
       <c r="C410" s="2"/>
     </row>
-    <row r="411" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="3:3" ht="12.75">
       <c r="C411" s="2"/>
     </row>
-    <row r="412" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="3:3" ht="12.75">
       <c r="C412" s="2"/>
     </row>
-    <row r="413" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="3:3" ht="12.75">
       <c r="C413" s="2"/>
     </row>
-    <row r="414" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="3:3" ht="12.75">
       <c r="C414" s="2"/>
     </row>
-    <row r="415" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="3:3" ht="12.75">
       <c r="C415" s="2"/>
     </row>
-    <row r="416" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="3:3" ht="12.75">
       <c r="C416" s="2"/>
     </row>
-    <row r="417" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="3:3" ht="12.75">
       <c r="C417" s="2"/>
     </row>
-    <row r="418" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="3:3" ht="12.75">
       <c r="C418" s="2"/>
     </row>
-    <row r="419" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="3:3" ht="12.75">
       <c r="C419" s="2"/>
     </row>
-    <row r="420" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="3:3" ht="12.75">
       <c r="C420" s="2"/>
     </row>
-    <row r="421" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="3:3" ht="12.75">
       <c r="C421" s="2"/>
     </row>
-    <row r="422" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="3:3" ht="12.75">
       <c r="C422" s="2"/>
     </row>
-    <row r="423" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="3:3" ht="12.75">
       <c r="C423" s="2"/>
     </row>
-    <row r="424" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="3:3" ht="12.75">
       <c r="C424" s="2"/>
     </row>
-    <row r="425" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="3:3" ht="12.75">
       <c r="C425" s="2"/>
     </row>
-    <row r="426" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="3:3" ht="12.75">
       <c r="C426" s="2"/>
     </row>
-    <row r="427" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="3:3" ht="12.75">
       <c r="C427" s="2"/>
     </row>
-    <row r="428" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="3:3" ht="12.75">
       <c r="C428" s="2"/>
     </row>
-    <row r="429" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="3:3" ht="12.75">
       <c r="C429" s="2"/>
     </row>
-    <row r="430" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="3:3" ht="12.75">
       <c r="C430" s="2"/>
     </row>
-    <row r="431" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="3:3" ht="12.75">
       <c r="C431" s="2"/>
     </row>
-    <row r="432" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="3:3" ht="12.75">
       <c r="C432" s="2"/>
     </row>
-    <row r="433" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="3:3" ht="12.75">
       <c r="C433" s="2"/>
     </row>
-    <row r="434" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="3:3" ht="12.75">
       <c r="C434" s="2"/>
     </row>
-    <row r="435" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="3:3" ht="12.75">
       <c r="C435" s="2"/>
     </row>
-    <row r="436" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="3:3" ht="12.75">
       <c r="C436" s="2"/>
     </row>
-    <row r="437" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="3:3" ht="12.75">
       <c r="C437" s="2"/>
     </row>
-    <row r="438" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="3:3" ht="12.75">
       <c r="C438" s="2"/>
     </row>
-    <row r="439" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="3:3" ht="12.75">
       <c r="C439" s="2"/>
     </row>
-    <row r="440" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="3:3" ht="12.75">
       <c r="C440" s="2"/>
     </row>
-    <row r="441" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="3:3" ht="12.75">
       <c r="C441" s="2"/>
     </row>
-    <row r="442" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="3:3" ht="12.75">
       <c r="C442" s="2"/>
     </row>
-    <row r="443" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="3:3" ht="12.75">
       <c r="C443" s="2"/>
     </row>
-    <row r="444" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="3:3" ht="12.75">
       <c r="C444" s="2"/>
     </row>
-    <row r="445" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="3:3" ht="12.75">
       <c r="C445" s="2"/>
     </row>
-    <row r="446" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="3:3" ht="12.75">
       <c r="C446" s="2"/>
     </row>
-    <row r="447" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="3:3" ht="12.75">
       <c r="C447" s="2"/>
     </row>
-    <row r="448" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="3:3" ht="12.75">
       <c r="C448" s="2"/>
     </row>
-    <row r="449" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="3:3" ht="12.75">
       <c r="C449" s="2"/>
     </row>
-    <row r="450" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="3:3" ht="12.75">
       <c r="C450" s="2"/>
     </row>
-    <row r="451" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="3:3" ht="12.75">
       <c r="C451" s="2"/>
     </row>
-    <row r="452" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="3:3" ht="12.75">
       <c r="C452" s="2"/>
     </row>
-    <row r="453" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="3:3" ht="12.75">
       <c r="C453" s="2"/>
     </row>
-    <row r="454" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="3:3" ht="12.75">
       <c r="C454" s="2"/>
     </row>
-    <row r="455" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="3:3" ht="12.75">
       <c r="C455" s="2"/>
     </row>
-    <row r="456" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="3:3" ht="12.75">
       <c r="C456" s="2"/>
     </row>
-    <row r="457" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="3:3" ht="12.75">
       <c r="C457" s="2"/>
     </row>
-    <row r="458" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="3:3" ht="12.75">
       <c r="C458" s="2"/>
     </row>
-    <row r="459" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="3:3" ht="12.75">
       <c r="C459" s="2"/>
     </row>
-    <row r="460" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="3:3" ht="12.75">
       <c r="C460" s="2"/>
     </row>
-    <row r="461" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="3:3" ht="12.75">
       <c r="C461" s="2"/>
     </row>
-    <row r="462" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="3:3" ht="12.75">
       <c r="C462" s="2"/>
     </row>
-    <row r="463" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="3:3" ht="12.75">
       <c r="C463" s="2"/>
     </row>
-    <row r="464" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="3:3" ht="12.75">
       <c r="C464" s="2"/>
     </row>
-    <row r="465" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="3:3" ht="12.75">
       <c r="C465" s="2"/>
     </row>
-    <row r="466" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="3:3" ht="12.75">
       <c r="C466" s="2"/>
     </row>
-    <row r="467" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="3:3" ht="12.75">
       <c r="C467" s="2"/>
     </row>
-    <row r="468" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="3:3" ht="12.75">
       <c r="C468" s="2"/>
     </row>
-    <row r="469" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="3:3" ht="12.75">
       <c r="C469" s="2"/>
     </row>
-    <row r="470" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="3:3" ht="12.75">
       <c r="C470" s="2"/>
     </row>
-    <row r="471" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="3:3" ht="12.75">
       <c r="C471" s="2"/>
     </row>
-    <row r="472" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="3:3" ht="12.75">
       <c r="C472" s="2"/>
     </row>
-    <row r="473" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="3:3" ht="12.75">
       <c r="C473" s="2"/>
     </row>
-    <row r="474" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="3:3" ht="12.75">
       <c r="C474" s="2"/>
     </row>
-    <row r="475" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="3:3" ht="12.75">
       <c r="C475" s="2"/>
     </row>
-    <row r="476" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="3:3" ht="12.75">
       <c r="C476" s="2"/>
     </row>
-    <row r="477" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="3:3" ht="12.75">
       <c r="C477" s="2"/>
     </row>
-    <row r="478" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="3:3" ht="12.75">
       <c r="C478" s="2"/>
     </row>
-    <row r="479" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="3:3" ht="12.75">
       <c r="C479" s="2"/>
     </row>
-    <row r="480" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="3:3" ht="12.75">
       <c r="C480" s="2"/>
     </row>
-    <row r="481" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="3:3" ht="12.75">
       <c r="C481" s="2"/>
     </row>
-    <row r="482" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="3:3" ht="12.75">
       <c r="C482" s="2"/>
     </row>
-    <row r="483" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="3:3" ht="12.75">
       <c r="C483" s="2"/>
     </row>
-    <row r="484" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="3:3" ht="12.75">
       <c r="C484" s="2"/>
     </row>
-    <row r="485" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="3:3" ht="12.75">
       <c r="C485" s="2"/>
     </row>
-    <row r="486" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="3:3" ht="12.75">
       <c r="C486" s="2"/>
     </row>
-    <row r="487" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="3:3" ht="12.75">
       <c r="C487" s="2"/>
     </row>
-    <row r="488" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="3:3" ht="12.75">
       <c r="C488" s="2"/>
     </row>
-    <row r="489" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="3:3" ht="12.75">
       <c r="C489" s="2"/>
     </row>
-    <row r="490" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="3:3" ht="12.75">
       <c r="C490" s="2"/>
     </row>
-    <row r="491" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="3:3" ht="12.75">
       <c r="C491" s="2"/>
     </row>
-    <row r="492" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="3:3" ht="12.75">
       <c r="C492" s="2"/>
     </row>
-    <row r="493" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="3:3" ht="12.75">
       <c r="C493" s="2"/>
     </row>
-    <row r="494" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="3:3" ht="12.75">
       <c r="C494" s="2"/>
     </row>
-    <row r="495" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="3:3" ht="12.75">
       <c r="C495" s="2"/>
     </row>
-    <row r="496" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="3:3" ht="12.75">
       <c r="C496" s="2"/>
     </row>
-    <row r="497" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="3:3" ht="12.75">
       <c r="C497" s="2"/>
     </row>
-    <row r="498" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="3:3" ht="12.75">
       <c r="C498" s="2"/>
     </row>
-    <row r="499" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="3:3" ht="12.75">
       <c r="C499" s="2"/>
     </row>
-    <row r="500" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="3:3" ht="12.75">
       <c r="C500" s="2"/>
     </row>
-    <row r="501" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="3:3" ht="12.75">
       <c r="C501" s="2"/>
     </row>
-    <row r="502" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="3:3" ht="12.75">
       <c r="C502" s="2"/>
     </row>
-    <row r="503" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="3:3" ht="12.75">
       <c r="C503" s="2"/>
     </row>
-    <row r="504" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="3:3" ht="12.75">
       <c r="C504" s="2"/>
     </row>
-    <row r="505" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="3:3" ht="12.75">
       <c r="C505" s="2"/>
     </row>
-    <row r="506" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="3:3" ht="12.75">
       <c r="C506" s="2"/>
     </row>
-    <row r="507" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="3:3" ht="12.75">
       <c r="C507" s="2"/>
     </row>
-    <row r="508" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="3:3" ht="12.75">
       <c r="C508" s="2"/>
     </row>
-    <row r="509" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="3:3" ht="12.75">
       <c r="C509" s="2"/>
     </row>
-    <row r="510" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="3:3" ht="12.75">
       <c r="C510" s="2"/>
     </row>
-    <row r="511" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="3:3" ht="12.75">
       <c r="C511" s="2"/>
     </row>
-    <row r="512" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="3:3" ht="12.75">
       <c r="C512" s="2"/>
     </row>
-    <row r="513" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="3:3" ht="12.75">
       <c r="C513" s="2"/>
     </row>
-    <row r="514" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="3:3" ht="12.75">
       <c r="C514" s="2"/>
     </row>
-    <row r="515" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="3:3" ht="12.75">
       <c r="C515" s="2"/>
     </row>
-    <row r="516" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="3:3" ht="12.75">
       <c r="C516" s="2"/>
     </row>
-    <row r="517" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="3:3" ht="12.75">
       <c r="C517" s="2"/>
     </row>
-    <row r="518" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="3:3" ht="12.75">
       <c r="C518" s="2"/>
     </row>
-    <row r="519" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="3:3" ht="12.75">
       <c r="C519" s="2"/>
     </row>
-    <row r="520" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="3:3" ht="12.75">
       <c r="C520" s="2"/>
     </row>
-    <row r="521" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="3:3" ht="12.75">
       <c r="C521" s="2"/>
     </row>
-    <row r="522" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="3:3" ht="12.75">
       <c r="C522" s="2"/>
     </row>
-    <row r="523" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="3:3" ht="12.75">
       <c r="C523" s="2"/>
     </row>
-    <row r="524" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="3:3" ht="12.75">
       <c r="C524" s="2"/>
     </row>
-    <row r="525" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="3:3" ht="12.75">
       <c r="C525" s="2"/>
     </row>
-    <row r="526" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="3:3" ht="12.75">
       <c r="C526" s="2"/>
     </row>
-    <row r="527" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="3:3" ht="12.75">
       <c r="C527" s="2"/>
     </row>
-    <row r="528" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="3:3" ht="12.75">
       <c r="C528" s="2"/>
     </row>
-    <row r="529" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="3:3" ht="12.75">
       <c r="C529" s="2"/>
     </row>
-    <row r="530" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="3:3" ht="12.75">
       <c r="C530" s="2"/>
     </row>
-    <row r="531" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="3:3" ht="12.75">
       <c r="C531" s="2"/>
     </row>
-    <row r="532" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="3:3" ht="12.75">
       <c r="C532" s="2"/>
     </row>
-    <row r="533" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="3:3" ht="12.75">
       <c r="C533" s="2"/>
     </row>
-    <row r="534" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="3:3" ht="12.75">
       <c r="C534" s="2"/>
     </row>
-    <row r="535" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="3:3" ht="12.75">
       <c r="C535" s="2"/>
     </row>
-    <row r="536" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="3:3" ht="12.75">
       <c r="C536" s="2"/>
     </row>
-    <row r="537" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="3:3" ht="12.75">
       <c r="C537" s="2"/>
     </row>
-    <row r="538" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="3:3" ht="12.75">
       <c r="C538" s="2"/>
     </row>
-    <row r="539" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="3:3" ht="12.75">
       <c r="C539" s="2"/>
     </row>
-    <row r="540" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="3:3" ht="12.75">
       <c r="C540" s="2"/>
     </row>
-    <row r="541" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="3:3" ht="12.75">
       <c r="C541" s="2"/>
     </row>
-    <row r="542" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="3:3" ht="12.75">
       <c r="C542" s="2"/>
     </row>
-    <row r="543" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="3:3" ht="12.75">
       <c r="C543" s="2"/>
     </row>
-    <row r="544" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="3:3" ht="12.75">
       <c r="C544" s="2"/>
     </row>
-    <row r="545" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="3:3" ht="12.75">
       <c r="C545" s="2"/>
     </row>
-    <row r="546" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="3:3" ht="12.75">
       <c r="C546" s="2"/>
     </row>
-    <row r="547" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="3:3" ht="12.75">
       <c r="C547" s="2"/>
     </row>
-    <row r="548" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="3:3" ht="12.75">
       <c r="C548" s="2"/>
     </row>
-    <row r="549" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="3:3" ht="12.75">
       <c r="C549" s="2"/>
     </row>
-    <row r="550" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="3:3" ht="12.75">
       <c r="C550" s="2"/>
     </row>
-    <row r="551" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="3:3" ht="12.75">
       <c r="C551" s="2"/>
     </row>
-    <row r="552" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="3:3" ht="12.75">
       <c r="C552" s="2"/>
     </row>
-    <row r="553" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="3:3" ht="12.75">
       <c r="C553" s="2"/>
     </row>
-    <row r="554" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="3:3" ht="12.75">
       <c r="C554" s="2"/>
     </row>
-    <row r="555" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="3:3" ht="12.75">
       <c r="C555" s="2"/>
     </row>
-    <row r="556" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="3:3" ht="12.75">
       <c r="C556" s="2"/>
     </row>
-    <row r="557" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="3:3" ht="12.75">
       <c r="C557" s="2"/>
     </row>
-    <row r="558" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="3:3" ht="12.75">
       <c r="C558" s="2"/>
     </row>
-    <row r="559" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="3:3" ht="12.75">
       <c r="C559" s="2"/>
     </row>
-    <row r="560" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="3:3" ht="12.75">
       <c r="C560" s="2"/>
     </row>
-    <row r="561" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="3:3" ht="12.75">
       <c r="C561" s="2"/>
     </row>
-    <row r="562" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="3:3" ht="12.75">
       <c r="C562" s="2"/>
     </row>
-    <row r="563" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="3:3" ht="12.75">
       <c r="C563" s="2"/>
     </row>
-    <row r="564" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="3:3" ht="12.75">
       <c r="C564" s="2"/>
     </row>
-    <row r="565" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="3:3" ht="12.75">
       <c r="C565" s="2"/>
     </row>
-    <row r="566" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="3:3" ht="12.75">
       <c r="C566" s="2"/>
     </row>
-    <row r="567" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="3:3" ht="12.75">
       <c r="C567" s="2"/>
     </row>
-    <row r="568" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="3:3" ht="12.75">
       <c r="C568" s="2"/>
     </row>
-    <row r="569" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="3:3" ht="12.75">
       <c r="C569" s="2"/>
     </row>
-    <row r="570" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="3:3" ht="12.75">
       <c r="C570" s="2"/>
     </row>
-    <row r="571" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="3:3" ht="12.75">
       <c r="C571" s="2"/>
     </row>
-    <row r="572" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="3:3" ht="12.75">
       <c r="C572" s="2"/>
     </row>
-    <row r="573" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="3:3" ht="12.75">
       <c r="C573" s="2"/>
     </row>
-    <row r="574" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="3:3" ht="12.75">
       <c r="C574" s="2"/>
     </row>
-    <row r="575" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="3:3" ht="12.75">
       <c r="C575" s="2"/>
     </row>
-    <row r="576" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="3:3" ht="12.75">
       <c r="C576" s="2"/>
     </row>
-    <row r="577" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="3:3" ht="12.75">
       <c r="C577" s="2"/>
     </row>
-    <row r="578" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="3:3" ht="12.75">
       <c r="C578" s="2"/>
     </row>
-    <row r="579" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="3:3" ht="12.75">
       <c r="C579" s="2"/>
     </row>
-    <row r="580" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="3:3" ht="12.75">
       <c r="C580" s="2"/>
     </row>
-    <row r="581" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="3:3" ht="12.75">
       <c r="C581" s="2"/>
     </row>
-    <row r="582" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="3:3" ht="12.75">
       <c r="C582" s="2"/>
     </row>
-    <row r="583" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="3:3" ht="12.75">
       <c r="C583" s="2"/>
     </row>
-    <row r="584" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="3:3" ht="12.75">
       <c r="C584" s="2"/>
     </row>
-    <row r="585" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="3:3" ht="12.75">
       <c r="C585" s="2"/>
     </row>
-    <row r="586" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="3:3" ht="12.75">
       <c r="C586" s="2"/>
     </row>
-    <row r="587" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="3:3" ht="12.75">
       <c r="C587" s="2"/>
     </row>
-    <row r="588" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="3:3" ht="12.75">
       <c r="C588" s="2"/>
     </row>
-    <row r="589" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="3:3" ht="12.75">
       <c r="C589" s="2"/>
     </row>
-    <row r="590" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="3:3" ht="12.75">
       <c r="C590" s="2"/>
     </row>
-    <row r="591" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="3:3" ht="12.75">
       <c r="C591" s="2"/>
     </row>
-    <row r="592" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="3:3" ht="12.75">
       <c r="C592" s="2"/>
     </row>
-    <row r="593" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="3:3" ht="12.75">
       <c r="C593" s="2"/>
     </row>
-    <row r="594" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="3:3" ht="12.75">
       <c r="C594" s="2"/>
     </row>
-    <row r="595" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="3:3" ht="12.75">
       <c r="C595" s="2"/>
     </row>
-    <row r="596" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="3:3" ht="12.75">
       <c r="C596" s="2"/>
     </row>
-    <row r="597" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="3:3" ht="12.75">
       <c r="C597" s="2"/>
     </row>
-    <row r="598" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="3:3" ht="12.75">
       <c r="C598" s="2"/>
     </row>
-    <row r="599" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="3:3" ht="12.75">
       <c r="C599" s="2"/>
     </row>
-    <row r="600" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="3:3" ht="12.75">
       <c r="C600" s="2"/>
     </row>
-    <row r="601" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="3:3" ht="12.75">
       <c r="C601" s="2"/>
     </row>
-    <row r="602" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="3:3" ht="12.75">
       <c r="C602" s="2"/>
     </row>
-    <row r="603" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="3:3" ht="12.75">
       <c r="C603" s="2"/>
     </row>
-    <row r="604" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="3:3" ht="12.75">
       <c r="C604" s="2"/>
     </row>
-    <row r="605" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="3:3" ht="12.75">
       <c r="C605" s="2"/>
     </row>
-    <row r="606" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="3:3" ht="12.75">
       <c r="C606" s="2"/>
     </row>
-    <row r="607" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="3:3" ht="12.75">
       <c r="C607" s="2"/>
     </row>
-    <row r="608" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="3:3" ht="12.75">
       <c r="C608" s="2"/>
     </row>
-    <row r="609" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="3:3" ht="12.75">
       <c r="C609" s="2"/>
     </row>
-    <row r="610" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="3:3" ht="12.75">
       <c r="C610" s="2"/>
     </row>
-    <row r="611" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="3:3" ht="12.75">
       <c r="C611" s="2"/>
     </row>
-    <row r="612" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="3:3" ht="12.75">
       <c r="C612" s="2"/>
     </row>
-    <row r="613" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="3:3" ht="12.75">
       <c r="C613" s="2"/>
     </row>
-    <row r="614" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="3:3" ht="12.75">
       <c r="C614" s="2"/>
     </row>
-    <row r="615" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="3:3" ht="12.75">
       <c r="C615" s="2"/>
     </row>
-    <row r="616" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="3:3" ht="12.75">
       <c r="C616" s="2"/>
     </row>
-    <row r="617" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="3:3" ht="12.75">
       <c r="C617" s="2"/>
     </row>
-    <row r="618" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="3:3" ht="12.75">
       <c r="C618" s="2"/>
     </row>
-    <row r="619" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="3:3" ht="12.75">
       <c r="C619" s="2"/>
     </row>
-    <row r="620" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="3:3" ht="12.75">
       <c r="C620" s="2"/>
     </row>
-    <row r="621" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="3:3" ht="12.75">
       <c r="C621" s="2"/>
     </row>
-    <row r="622" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="3:3" ht="12.75">
       <c r="C622" s="2"/>
     </row>
-    <row r="623" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="3:3" ht="12.75">
       <c r="C623" s="2"/>
     </row>
-    <row r="624" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="3:3" ht="12.75">
       <c r="C624" s="2"/>
     </row>
-    <row r="625" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="3:3" ht="12.75">
       <c r="C625" s="2"/>
     </row>
-    <row r="626" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="3:3" ht="12.75">
       <c r="C626" s="2"/>
     </row>
-    <row r="627" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="3:3" ht="12.75">
       <c r="C627" s="2"/>
     </row>
-    <row r="628" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="3:3" ht="12.75">
       <c r="C628" s="2"/>
     </row>
-    <row r="629" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="3:3" ht="12.75">
       <c r="C629" s="2"/>
     </row>
-    <row r="630" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="3:3" ht="12.75">
       <c r="C630" s="2"/>
     </row>
-    <row r="631" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="3:3" ht="12.75">
       <c r="C631" s="2"/>
     </row>
-    <row r="632" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="3:3" ht="12.75">
       <c r="C632" s="2"/>
     </row>
-    <row r="633" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="3:3" ht="12.75">
       <c r="C633" s="2"/>
     </row>
-    <row r="634" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="3:3" ht="12.75">
       <c r="C634" s="2"/>
     </row>
-    <row r="635" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="3:3" ht="12.75">
       <c r="C635" s="2"/>
     </row>
-    <row r="636" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="3:3" ht="12.75">
       <c r="C636" s="2"/>
     </row>
-    <row r="637" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="3:3" ht="12.75">
       <c r="C637" s="2"/>
     </row>
-    <row r="638" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="3:3" ht="12.75">
       <c r="C638" s="2"/>
     </row>
-    <row r="639" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="3:3" ht="12.75">
       <c r="C639" s="2"/>
     </row>
-    <row r="640" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="3:3" ht="12.75">
       <c r="C640" s="2"/>
     </row>
-    <row r="641" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="3:3" ht="12.75">
       <c r="C641" s="2"/>
     </row>
-    <row r="642" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="3:3" ht="12.75">
       <c r="C642" s="2"/>
     </row>
-    <row r="643" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="3:3" ht="12.75">
       <c r="C643" s="2"/>
     </row>
-    <row r="644" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="3:3" ht="12.75">
       <c r="C644" s="2"/>
     </row>
-    <row r="645" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="3:3" ht="12.75">
       <c r="C645" s="2"/>
     </row>
-    <row r="646" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="3:3" ht="12.75">
       <c r="C646" s="2"/>
     </row>
-    <row r="647" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="3:3" ht="12.75">
       <c r="C647" s="2"/>
     </row>
-    <row r="648" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="3:3" ht="12.75">
       <c r="C648" s="2"/>
     </row>
-    <row r="649" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="3:3" ht="12.75">
       <c r="C649" s="2"/>
     </row>
-    <row r="650" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="3:3" ht="12.75">
       <c r="C650" s="2"/>
     </row>
-    <row r="651" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="3:3" ht="12.75">
       <c r="C651" s="2"/>
     </row>
-    <row r="652" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="3:3" ht="12.75">
       <c r="C652" s="2"/>
     </row>
-    <row r="653" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="3:3" ht="12.75">
       <c r="C653" s="2"/>
     </row>
-    <row r="654" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="3:3" ht="12.75">
       <c r="C654" s="2"/>
     </row>
-    <row r="655" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="3:3" ht="12.75">
       <c r="C655" s="2"/>
     </row>
-    <row r="656" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="3:3" ht="12.75">
       <c r="C656" s="2"/>
     </row>
-    <row r="657" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="3:3" ht="12.75">
       <c r="C657" s="2"/>
     </row>
-    <row r="658" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="3:3" ht="12.75">
       <c r="C658" s="2"/>
     </row>
-    <row r="659" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="3:3" ht="12.75">
       <c r="C659" s="2"/>
     </row>
-    <row r="660" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="3:3" ht="12.75">
       <c r="C660" s="2"/>
     </row>
-    <row r="661" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="3:3" ht="12.75">
       <c r="C661" s="2"/>
     </row>
-    <row r="662" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="3:3" ht="12.75">
       <c r="C662" s="2"/>
     </row>
-    <row r="663" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="3:3" ht="12.75">
       <c r="C663" s="2"/>
     </row>
-    <row r="664" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="3:3" ht="12.75">
       <c r="C664" s="2"/>
     </row>
-    <row r="665" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="3:3" ht="12.75">
       <c r="C665" s="2"/>
     </row>
-    <row r="666" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="3:3" ht="12.75">
       <c r="C666" s="2"/>
     </row>
-    <row r="667" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="3:3" ht="12.75">
       <c r="C667" s="2"/>
     </row>
-    <row r="668" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="3:3" ht="12.75">
       <c r="C668" s="2"/>
     </row>
-    <row r="669" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="3:3" ht="12.75">
       <c r="C669" s="2"/>
     </row>
-    <row r="670" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="3:3" ht="12.75">
       <c r="C670" s="2"/>
     </row>
-    <row r="671" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="3:3" ht="12.75">
       <c r="C671" s="2"/>
     </row>
-    <row r="672" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="3:3" ht="12.75">
       <c r="C672" s="2"/>
     </row>
-    <row r="673" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="3:3" ht="12.75">
       <c r="C673" s="2"/>
     </row>
-    <row r="674" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="3:3" ht="12.75">
       <c r="C674" s="2"/>
     </row>
-    <row r="675" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="3:3" ht="12.75">
       <c r="C675" s="2"/>
     </row>
-    <row r="676" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="3:3" ht="12.75">
       <c r="C676" s="2"/>
     </row>
-    <row r="677" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="3:3" ht="12.75">
       <c r="C677" s="2"/>
     </row>
-    <row r="678" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="3:3" ht="12.75">
       <c r="C678" s="2"/>
     </row>
-    <row r="679" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="3:3" ht="12.75">
       <c r="C679" s="2"/>
     </row>
-    <row r="680" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="3:3" ht="12.75">
       <c r="C680" s="2"/>
     </row>
-    <row r="681" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="3:3" ht="12.75">
       <c r="C681" s="2"/>
     </row>
-    <row r="682" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="3:3" ht="12.75">
       <c r="C682" s="2"/>
     </row>
-    <row r="683" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="3:3" ht="12.75">
       <c r="C683" s="2"/>
     </row>
-    <row r="684" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="3:3" ht="12.75">
       <c r="C684" s="2"/>
     </row>
-    <row r="685" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="3:3" ht="12.75">
       <c r="C685" s="2"/>
     </row>
-    <row r="686" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="3:3" ht="12.75">
       <c r="C686" s="2"/>
     </row>
-    <row r="687" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="3:3" ht="12.75">
       <c r="C687" s="2"/>
     </row>
-    <row r="688" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="3:3" ht="12.75">
       <c r="C688" s="2"/>
     </row>
-    <row r="689" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="3:3" ht="12.75">
       <c r="C689" s="2"/>
     </row>
-    <row r="690" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="3:3" ht="12.75">
       <c r="C690" s="2"/>
     </row>
-    <row r="691" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="3:3" ht="12.75">
       <c r="C691" s="2"/>
     </row>
-    <row r="692" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="3:3" ht="12.75">
       <c r="C692" s="2"/>
     </row>
-    <row r="693" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="3:3" ht="12.75">
       <c r="C693" s="2"/>
     </row>
-    <row r="694" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="3:3" ht="12.75">
       <c r="C694" s="2"/>
     </row>
-    <row r="695" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="3:3" ht="12.75">
       <c r="C695" s="2"/>
     </row>
-    <row r="696" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="3:3" ht="12.75">
       <c r="C696" s="2"/>
     </row>
-    <row r="697" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="3:3" ht="12.75">
       <c r="C697" s="2"/>
     </row>
-    <row r="698" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="3:3" ht="12.75">
       <c r="C698" s="2"/>
     </row>
-    <row r="699" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="3:3" ht="12.75">
       <c r="C699" s="2"/>
     </row>
-    <row r="700" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="3:3" ht="12.75">
       <c r="C700" s="2"/>
     </row>
-    <row r="701" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="3:3" ht="12.75">
       <c r="C701" s="2"/>
     </row>
-    <row r="702" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="3:3" ht="12.75">
       <c r="C702" s="2"/>
     </row>
-    <row r="703" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="3:3" ht="12.75">
       <c r="C703" s="2"/>
     </row>
-    <row r="704" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="3:3" ht="12.75">
       <c r="C704" s="2"/>
     </row>
-    <row r="705" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="3:3" ht="12.75">
       <c r="C705" s="2"/>
     </row>
-    <row r="706" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="3:3" ht="12.75">
       <c r="C706" s="2"/>
     </row>
-    <row r="707" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="3:3" ht="12.75">
       <c r="C707" s="2"/>
     </row>
-    <row r="708" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="3:3" ht="12.75">
       <c r="C708" s="2"/>
     </row>
-    <row r="709" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="3:3" ht="12.75">
       <c r="C709" s="2"/>
     </row>
-    <row r="710" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="3:3" ht="12.75">
       <c r="C710" s="2"/>
     </row>
-    <row r="711" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="3:3" ht="12.75">
       <c r="C711" s="2"/>
     </row>
-    <row r="712" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="3:3" ht="12.75">
       <c r="C712" s="2"/>
     </row>
-    <row r="713" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="3:3" ht="12.75">
       <c r="C713" s="2"/>
     </row>
-    <row r="714" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="3:3" ht="12.75">
       <c r="C714" s="2"/>
     </row>
-    <row r="715" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="3:3" ht="12.75">
       <c r="C715" s="2"/>
     </row>
-    <row r="716" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="3:3" ht="12.75">
       <c r="C716" s="2"/>
     </row>
-    <row r="717" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="3:3" ht="12.75">
       <c r="C717" s="2"/>
     </row>
-    <row r="718" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="3:3" ht="12.75">
       <c r="C718" s="2"/>
     </row>
-    <row r="719" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="3:3" ht="12.75">
       <c r="C719" s="2"/>
     </row>
-    <row r="720" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="3:3" ht="12.75">
       <c r="C720" s="2"/>
     </row>
-    <row r="721" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="3:3" ht="12.75">
       <c r="C721" s="2"/>
     </row>
-    <row r="722" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="3:3" ht="12.75">
       <c r="C722" s="2"/>
     </row>
-    <row r="723" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="3:3" ht="12.75">
       <c r="C723" s="2"/>
     </row>
-    <row r="724" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="3:3" ht="12.75">
       <c r="C724" s="2"/>
     </row>
-    <row r="725" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="3:3" ht="12.75">
       <c r="C725" s="2"/>
     </row>
-    <row r="726" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="3:3" ht="12.75">
       <c r="C726" s="2"/>
     </row>
-    <row r="727" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="3:3" ht="12.75">
       <c r="C727" s="2"/>
     </row>
-    <row r="728" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="3:3" ht="12.75">
       <c r="C728" s="2"/>
     </row>
-    <row r="729" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="3:3" ht="12.75">
       <c r="C729" s="2"/>
     </row>
-    <row r="730" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="3:3" ht="12.75">
       <c r="C730" s="2"/>
     </row>
-    <row r="731" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="3:3" ht="12.75">
       <c r="C731" s="2"/>
     </row>
-    <row r="732" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="3:3" ht="12.75">
       <c r="C732" s="2"/>
     </row>
-    <row r="733" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="3:3" ht="12.75">
       <c r="C733" s="2"/>
     </row>
-    <row r="734" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="3:3" ht="12.75">
       <c r="C734" s="2"/>
     </row>
-    <row r="735" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="3:3" ht="12.75">
       <c r="C735" s="2"/>
     </row>
-    <row r="736" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="3:3" ht="12.75">
       <c r="C736" s="2"/>
     </row>
-    <row r="737" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="3:3" ht="12.75">
       <c r="C737" s="2"/>
     </row>
-    <row r="738" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="3:3" ht="12.75">
       <c r="C738" s="2"/>
     </row>
-    <row r="739" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="3:3" ht="12.75">
       <c r="C739" s="2"/>
     </row>
-    <row r="740" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="3:3" ht="12.75">
       <c r="C740" s="2"/>
     </row>
-    <row r="741" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="3:3" ht="12.75">
       <c r="C741" s="2"/>
     </row>
-    <row r="742" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="3:3" ht="12.75">
       <c r="C742" s="2"/>
     </row>
-    <row r="743" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="3:3" ht="12.75">
       <c r="C743" s="2"/>
     </row>
-    <row r="744" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="3:3" ht="12.75">
       <c r="C744" s="2"/>
     </row>
-    <row r="745" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="3:3" ht="12.75">
       <c r="C745" s="2"/>
     </row>
-    <row r="746" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="3:3" ht="12.75">
       <c r="C746" s="2"/>
     </row>
-    <row r="747" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="3:3" ht="12.75">
       <c r="C747" s="2"/>
     </row>
-    <row r="748" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="3:3" ht="12.75">
       <c r="C748" s="2"/>
     </row>
-    <row r="749" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="3:3" ht="12.75">
       <c r="C749" s="2"/>
     </row>
-    <row r="750" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="3:3" ht="12.75">
       <c r="C750" s="2"/>
     </row>
-    <row r="751" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="3:3" ht="12.75">
       <c r="C751" s="2"/>
     </row>
-    <row r="752" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="3:3" ht="12.75">
       <c r="C752" s="2"/>
     </row>
-    <row r="753" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="3:3" ht="12.75">
       <c r="C753" s="2"/>
     </row>
-    <row r="754" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="3:3" ht="12.75">
       <c r="C754" s="2"/>
     </row>
-    <row r="755" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="3:3" ht="12.75">
       <c r="C755" s="2"/>
     </row>
-    <row r="756" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="3:3" ht="12.75">
       <c r="C756" s="2"/>
     </row>
-    <row r="757" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="3:3" ht="12.75">
       <c r="C757" s="2"/>
     </row>
-    <row r="758" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="3:3" ht="12.75">
       <c r="C758" s="2"/>
     </row>
-    <row r="759" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="3:3" ht="12.75">
       <c r="C759" s="2"/>
     </row>
-    <row r="760" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="3:3" ht="12.75">
       <c r="C760" s="2"/>
     </row>
-    <row r="761" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="3:3" ht="12.75">
       <c r="C761" s="2"/>
     </row>
-    <row r="762" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="3:3" ht="12.75">
       <c r="C762" s="2"/>
     </row>
-    <row r="763" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="3:3" ht="12.75">
       <c r="C763" s="2"/>
     </row>
-    <row r="764" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="3:3" ht="12.75">
       <c r="C764" s="2"/>
     </row>
-    <row r="765" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="3:3" ht="12.75">
       <c r="C765" s="2"/>
     </row>
-    <row r="766" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="3:3" ht="12.75">
       <c r="C766" s="2"/>
     </row>
-    <row r="767" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="3:3" ht="12.75">
       <c r="C767" s="2"/>
     </row>
-    <row r="768" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="3:3" ht="12.75">
       <c r="C768" s="2"/>
     </row>
-    <row r="769" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="3:3" ht="12.75">
       <c r="C769" s="2"/>
     </row>
-    <row r="770" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="3:3" ht="12.75">
       <c r="C770" s="2"/>
     </row>
-    <row r="771" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="3:3" ht="12.75">
       <c r="C771" s="2"/>
     </row>
-    <row r="772" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="3:3" ht="12.75">
       <c r="C772" s="2"/>
     </row>
-    <row r="773" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="3:3" ht="12.75">
       <c r="C773" s="2"/>
     </row>
-    <row r="774" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="3:3" ht="12.75">
       <c r="C774" s="2"/>
     </row>
-    <row r="775" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="3:3" ht="12.75">
       <c r="C775" s="2"/>
     </row>
-    <row r="776" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="3:3" ht="12.75">
       <c r="C776" s="2"/>
     </row>
-    <row r="777" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="3:3" ht="12.75">
       <c r="C777" s="2"/>
     </row>
-    <row r="778" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="3:3" ht="12.75">
       <c r="C778" s="2"/>
     </row>
-    <row r="779" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="3:3" ht="12.75">
       <c r="C779" s="2"/>
     </row>
-    <row r="780" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="3:3" ht="12.75">
       <c r="C780" s="2"/>
     </row>
-    <row r="781" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="3:3" ht="12.75">
       <c r="C781" s="2"/>
     </row>
-    <row r="782" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="3:3" ht="12.75">
       <c r="C782" s="2"/>
     </row>
-    <row r="783" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="3:3" ht="12.75">
       <c r="C783" s="2"/>
     </row>
-    <row r="784" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="3:3" ht="12.75">
       <c r="C784" s="2"/>
     </row>
-    <row r="785" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="3:3" ht="12.75">
       <c r="C785" s="2"/>
     </row>
-    <row r="786" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="3:3" ht="12.75">
       <c r="C786" s="2"/>
     </row>
-    <row r="787" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="3:3" ht="12.75">
       <c r="C787" s="2"/>
     </row>
-    <row r="788" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="3:3" ht="12.75">
       <c r="C788" s="2"/>
     </row>
-    <row r="789" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="3:3" ht="12.75">
       <c r="C789" s="2"/>
     </row>
-    <row r="790" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="3:3" ht="12.75">
       <c r="C790" s="2"/>
     </row>
-    <row r="791" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="3:3" ht="12.75">
       <c r="C791" s="2"/>
     </row>
-    <row r="792" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="3:3" ht="12.75">
       <c r="C792" s="2"/>
     </row>
-    <row r="793" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="3:3" ht="12.75">
       <c r="C793" s="2"/>
     </row>
-    <row r="794" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="3:3" ht="12.75">
       <c r="C794" s="2"/>
     </row>
-    <row r="795" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="3:3" ht="12.75">
       <c r="C795" s="2"/>
     </row>
-    <row r="796" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="3:3" ht="12.75">
       <c r="C796" s="2"/>
     </row>
-    <row r="797" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="3:3" ht="12.75">
       <c r="C797" s="2"/>
     </row>
-    <row r="798" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="3:3" ht="12.75">
       <c r="C798" s="2"/>
     </row>
-    <row r="799" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="3:3" ht="12.75">
       <c r="C799" s="2"/>
     </row>
-    <row r="800" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="3:3" ht="12.75">
       <c r="C800" s="2"/>
     </row>
-    <row r="801" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="3:3" ht="12.75">
       <c r="C801" s="2"/>
     </row>
-    <row r="802" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="3:3" ht="12.75">
       <c r="C802" s="2"/>
     </row>
-    <row r="803" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="3:3" ht="12.75">
       <c r="C803" s="2"/>
     </row>
-    <row r="804" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="3:3" ht="12.75">
       <c r="C804" s="2"/>
     </row>
-    <row r="805" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="3:3" ht="12.75">
       <c r="C805" s="2"/>
     </row>
-    <row r="806" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="3:3" ht="12.75">
       <c r="C806" s="2"/>
     </row>
-    <row r="807" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="3:3" ht="12.75">
       <c r="C807" s="2"/>
     </row>
-    <row r="808" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="3:3" ht="12.75">
       <c r="C808" s="2"/>
     </row>
-    <row r="809" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="3:3" ht="12.75">
       <c r="C809" s="2"/>
     </row>
-    <row r="810" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="3:3" ht="12.75">
       <c r="C810" s="2"/>
     </row>
-    <row r="811" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="3:3" ht="12.75">
       <c r="C811" s="2"/>
     </row>
-    <row r="812" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="3:3" ht="12.75">
       <c r="C812" s="2"/>
     </row>
-    <row r="813" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="3:3" ht="12.75">
       <c r="C813" s="2"/>
     </row>
-    <row r="814" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="3:3" ht="12.75">
       <c r="C814" s="2"/>
     </row>
-    <row r="815" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="3:3" ht="12.75">
       <c r="C815" s="2"/>
     </row>
-    <row r="816" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="3:3" ht="12.75">
       <c r="C816" s="2"/>
     </row>
-    <row r="817" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="3:3" ht="12.75">
       <c r="C817" s="2"/>
     </row>
-    <row r="818" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="3:3" ht="12.75">
       <c r="C818" s="2"/>
     </row>
-    <row r="819" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="3:3" ht="12.75">
       <c r="C819" s="2"/>
     </row>
-    <row r="820" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="3:3" ht="12.75">
       <c r="C820" s="2"/>
     </row>
-    <row r="821" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="3:3" ht="12.75">
       <c r="C821" s="2"/>
     </row>
-    <row r="822" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="3:3" ht="12.75">
       <c r="C822" s="2"/>
     </row>
-    <row r="823" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="3:3" ht="12.75">
       <c r="C823" s="2"/>
     </row>
-    <row r="824" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="3:3" ht="12.75">
       <c r="C824" s="2"/>
     </row>
-    <row r="825" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="3:3" ht="12.75">
       <c r="C825" s="2"/>
     </row>
-    <row r="826" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="3:3" ht="12.75">
       <c r="C826" s="2"/>
     </row>
-    <row r="827" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="3:3" ht="12.75">
       <c r="C827" s="2"/>
     </row>
-    <row r="828" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="3:3" ht="12.75">
       <c r="C828" s="2"/>
     </row>
-    <row r="829" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="3:3" ht="12.75">
       <c r="C829" s="2"/>
     </row>
-    <row r="830" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="3:3" ht="12.75">
       <c r="C830" s="2"/>
     </row>
-    <row r="831" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="3:3" ht="12.75">
       <c r="C831" s="2"/>
     </row>
-    <row r="832" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="3:3" ht="12.75">
       <c r="C832" s="2"/>
     </row>
-    <row r="833" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="3:3" ht="12.75">
       <c r="C833" s="2"/>
     </row>
-    <row r="834" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="3:3" ht="12.75">
       <c r="C834" s="2"/>
     </row>
-    <row r="835" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="3:3" ht="12.75">
       <c r="C835" s="2"/>
     </row>
-    <row r="836" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="3:3" ht="12.75">
       <c r="C836" s="2"/>
     </row>
-    <row r="837" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="3:3" ht="12.75">
       <c r="C837" s="2"/>
     </row>
-    <row r="838" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="3:3" ht="12.75">
       <c r="C838" s="2"/>
     </row>
-    <row r="839" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="3:3" ht="12.75">
       <c r="C839" s="2"/>
     </row>
-    <row r="840" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="3:3" ht="12.75">
       <c r="C840" s="2"/>
     </row>
-    <row r="841" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="3:3" ht="12.75">
       <c r="C841" s="2"/>
     </row>
-    <row r="842" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="3:3" ht="12.75">
       <c r="C842" s="2"/>
     </row>
-    <row r="843" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="3:3" ht="12.75">
       <c r="C843" s="2"/>
     </row>
-    <row r="844" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="3:3" ht="12.75">
       <c r="C844" s="2"/>
     </row>
-    <row r="845" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="3:3" ht="12.75">
       <c r="C845" s="2"/>
     </row>
-    <row r="846" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="3:3" ht="12.75">
       <c r="C846" s="2"/>
     </row>
-    <row r="847" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="3:3" ht="12.75">
       <c r="C847" s="2"/>
     </row>
-    <row r="848" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="3:3" ht="12.75">
       <c r="C848" s="2"/>
     </row>
-    <row r="849" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="3:3" ht="12.75">
       <c r="C849" s="2"/>
     </row>
-    <row r="850" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="3:3" ht="12.75">
       <c r="C850" s="2"/>
     </row>
-    <row r="851" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="3:3" ht="12.75">
       <c r="C851" s="2"/>
     </row>
-    <row r="852" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="3:3" ht="12.75">
       <c r="C852" s="2"/>
     </row>
-    <row r="853" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="3:3" ht="12.75">
       <c r="C853" s="2"/>
     </row>
-    <row r="854" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="3:3" ht="12.75">
       <c r="C854" s="2"/>
     </row>
-    <row r="855" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="3:3" ht="12.75">
       <c r="C855" s="2"/>
     </row>
-    <row r="856" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="3:3" ht="12.75">
       <c r="C856" s="2"/>
     </row>
-    <row r="857" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="3:3" ht="12.75">
       <c r="C857" s="2"/>
     </row>
-    <row r="858" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="3:3" ht="12.75">
       <c r="C858" s="2"/>
     </row>
-    <row r="859" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="3:3" ht="12.75">
       <c r="C859" s="2"/>
     </row>
-    <row r="860" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="3:3" ht="12.75">
       <c r="C860" s="2"/>
     </row>
-    <row r="861" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="3:3" ht="12.75">
       <c r="C861" s="2"/>
     </row>
-    <row r="862" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="3:3" ht="12.75">
       <c r="C862" s="2"/>
     </row>
-    <row r="863" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="3:3" ht="12.75">
       <c r="C863" s="2"/>
     </row>
-    <row r="864" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="3:3" ht="12.75">
       <c r="C864" s="2"/>
     </row>
-    <row r="865" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="3:3" ht="12.75">
       <c r="C865" s="2"/>
     </row>
-    <row r="866" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="3:3" ht="12.75">
       <c r="C866" s="2"/>
     </row>
-    <row r="867" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="3:3" ht="12.75">
       <c r="C867" s="2"/>
     </row>
-    <row r="868" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="3:3" ht="12.75">
       <c r="C868" s="2"/>
     </row>
-    <row r="869" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="3:3" ht="12.75">
       <c r="C869" s="2"/>
     </row>
-    <row r="870" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="3:3" ht="12.75">
       <c r="C870" s="2"/>
     </row>
-    <row r="871" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="3:3" ht="12.75">
       <c r="C871" s="2"/>
     </row>
-    <row r="872" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="3:3" ht="12.75">
       <c r="C872" s="2"/>
     </row>
-    <row r="873" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="3:3" ht="12.75">
       <c r="C873" s="2"/>
     </row>
-    <row r="874" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="3:3" ht="12.75">
       <c r="C874" s="2"/>
     </row>
-    <row r="875" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="3:3" ht="12.75">
       <c r="C875" s="2"/>
     </row>
-    <row r="876" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="3:3" ht="12.75">
       <c r="C876" s="2"/>
     </row>
-    <row r="877" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="3:3" ht="12.75">
       <c r="C877" s="2"/>
     </row>
-    <row r="878" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="3:3" ht="12.75">
       <c r="C878" s="2"/>
     </row>
-    <row r="879" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="3:3" ht="12.75">
       <c r="C879" s="2"/>
     </row>
-    <row r="880" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="3:3" ht="12.75">
       <c r="C880" s="2"/>
     </row>
-    <row r="881" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="3:3" ht="12.75">
       <c r="C881" s="2"/>
     </row>
-    <row r="882" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="3:3" ht="12.75">
       <c r="C882" s="2"/>
     </row>
-    <row r="883" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="3:3" ht="12.75">
       <c r="C883" s="2"/>
     </row>
-    <row r="884" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="3:3" ht="12.75">
       <c r="C884" s="2"/>
     </row>
-    <row r="885" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="3:3" ht="12.75">
       <c r="C885" s="2"/>
     </row>
-    <row r="886" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="3:3" ht="12.75">
       <c r="C886" s="2"/>
     </row>
-    <row r="887" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="3:3" ht="12.75">
       <c r="C887" s="2"/>
     </row>
-    <row r="888" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="3:3" ht="12.75">
       <c r="C888" s="2"/>
     </row>
-    <row r="889" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="3:3" ht="12.75">
       <c r="C889" s="2"/>
     </row>
-    <row r="890" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="3:3" ht="12.75">
       <c r="C890" s="2"/>
     </row>
-    <row r="891" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="3:3" ht="12.75">
       <c r="C891" s="2"/>
     </row>
-    <row r="892" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="3:3" ht="12.75">
       <c r="C892" s="2"/>
     </row>
-    <row r="893" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="3:3" ht="12.75">
       <c r="C893" s="2"/>
     </row>
-    <row r="894" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="3:3" ht="12.75">
       <c r="C894" s="2"/>
     </row>
-    <row r="895" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="3:3" ht="12.75">
       <c r="C895" s="2"/>
     </row>
-    <row r="896" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="3:3" ht="12.75">
       <c r="C896" s="2"/>
     </row>
-    <row r="897" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="3:3" ht="12.75">
       <c r="C897" s="2"/>
     </row>
-    <row r="898" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="3:3" ht="12.75">
       <c r="C898" s="2"/>
     </row>
-    <row r="899" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="3:3" ht="12.75">
       <c r="C899" s="2"/>
     </row>
-    <row r="900" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="3:3" ht="12.75">
       <c r="C900" s="2"/>
     </row>
-    <row r="901" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="3:3" ht="12.75">
       <c r="C901" s="2"/>
     </row>
-    <row r="902" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="3:3" ht="12.75">
       <c r="C902" s="2"/>
     </row>
-    <row r="903" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="3:3" ht="12.75">
       <c r="C903" s="2"/>
     </row>
-    <row r="904" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="3:3" ht="12.75">
       <c r="C904" s="2"/>
     </row>
-    <row r="905" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="3:3" ht="12.75">
       <c r="C905" s="2"/>
     </row>
-    <row r="906" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="3:3" ht="12.75">
       <c r="C906" s="2"/>
     </row>
-    <row r="907" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="3:3" ht="12.75">
       <c r="C907" s="2"/>
     </row>
-    <row r="908" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="3:3" ht="12.75">
       <c r="C908" s="2"/>
     </row>
-    <row r="909" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="3:3" ht="12.75">
       <c r="C909" s="2"/>
     </row>
-    <row r="910" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="3:3" ht="12.75">
       <c r="C910" s="2"/>
     </row>
-    <row r="911" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="3:3" ht="12.75">
       <c r="C911" s="2"/>
     </row>
-    <row r="912" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="3:3" ht="12.75">
       <c r="C912" s="2"/>
     </row>
-    <row r="913" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="3:3" ht="12.75">
       <c r="C913" s="2"/>
     </row>
-    <row r="914" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="3:3" ht="12.75">
       <c r="C914" s="2"/>
     </row>
-    <row r="915" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="3:3" ht="12.75">
       <c r="C915" s="2"/>
     </row>
-    <row r="916" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="3:3" ht="12.75">
       <c r="C916" s="2"/>
     </row>
-    <row r="917" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="3:3" ht="12.75">
       <c r="C917" s="2"/>
     </row>
-    <row r="918" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="3:3" ht="12.75">
       <c r="C918" s="2"/>
     </row>
-    <row r="919" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="3:3" ht="12.75">
       <c r="C919" s="2"/>
     </row>
-    <row r="920" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="3:3" ht="12.75">
       <c r="C920" s="2"/>
     </row>
-    <row r="921" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="3:3" ht="12.75">
       <c r="C921" s="2"/>
     </row>
-    <row r="922" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="3:3" ht="12.75">
       <c r="C922" s="2"/>
     </row>
-    <row r="923" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="3:3" ht="12.75">
       <c r="C923" s="2"/>
     </row>
-    <row r="924" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="3:3" ht="12.75">
       <c r="C924" s="2"/>
     </row>
-    <row r="925" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="3:3" ht="12.75">
       <c r="C925" s="2"/>
     </row>
-    <row r="926" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="3:3" ht="12.75">
       <c r="C926" s="2"/>
     </row>
-    <row r="927" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="3:3" ht="12.75">
       <c r="C927" s="2"/>
     </row>
-    <row r="928" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="3:3" ht="12.75">
       <c r="C928" s="2"/>
     </row>
-    <row r="929" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="3:3" ht="12.75">
       <c r="C929" s="2"/>
     </row>
-    <row r="930" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="3:3" ht="12.75">
       <c r="C930" s="2"/>
     </row>
-    <row r="931" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="3:3" ht="12.75">
       <c r="C931" s="2"/>
     </row>
-    <row r="932" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="3:3" ht="12.75">
       <c r="C932" s="2"/>
     </row>
-    <row r="933" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="3:3" ht="12.75">
       <c r="C933" s="2"/>
     </row>
-    <row r="934" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="3:3" ht="12.75">
       <c r="C934" s="2"/>
     </row>
-    <row r="935" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="3:3" ht="12.75">
       <c r="C935" s="2"/>
     </row>
-    <row r="936" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="3:3" ht="12.75">
       <c r="C936" s="2"/>
     </row>
-    <row r="937" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="3:3" ht="12.75">
       <c r="C937" s="2"/>
     </row>
-    <row r="938" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="3:3" ht="12.75">
       <c r="C938" s="2"/>
     </row>
-    <row r="939" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="3:3" ht="12.75">
       <c r="C939" s="2"/>
     </row>
-    <row r="940" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="3:3" ht="12.75">
       <c r="C940" s="2"/>
     </row>
-    <row r="941" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="3:3" ht="12.75">
       <c r="C941" s="2"/>
     </row>
-    <row r="942" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="3:3" ht="12.75">
       <c r="C942" s="2"/>
     </row>
-    <row r="943" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="3:3" ht="12.75">
       <c r="C943" s="2"/>
     </row>
-    <row r="944" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="3:3" ht="12.75">
       <c r="C944" s="2"/>
     </row>
-    <row r="945" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="3:3" ht="12.75">
       <c r="C945" s="2"/>
     </row>
-    <row r="946" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="3:3" ht="12.75">
       <c r="C946" s="2"/>
     </row>
-    <row r="947" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="3:3" ht="12.75">
       <c r="C947" s="2"/>
     </row>
-    <row r="948" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="3:3" ht="12.75">
       <c r="C948" s="2"/>
     </row>
-    <row r="949" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="3:3" ht="12.75">
       <c r="C949" s="2"/>
     </row>
-    <row r="950" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="3:3" ht="12.75">
       <c r="C950" s="2"/>
     </row>
-    <row r="951" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="3:3" ht="12.75">
       <c r="C951" s="2"/>
     </row>
-    <row r="952" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="3:3" ht="12.75">
       <c r="C952" s="2"/>
     </row>
-    <row r="953" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="3:3" ht="12.75">
       <c r="C953" s="2"/>
     </row>
-    <row r="954" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="3:3" ht="12.75">
       <c r="C954" s="2"/>
     </row>
-    <row r="955" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="3:3" ht="12.75">
       <c r="C955" s="2"/>
     </row>
-    <row r="956" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="3:3" ht="12.75">
       <c r="C956" s="2"/>
     </row>
-    <row r="957" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="3:3" ht="12.75">
       <c r="C957" s="2"/>
     </row>
-    <row r="958" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="3:3" ht="12.75">
       <c r="C958" s="2"/>
     </row>
-    <row r="959" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="3:3" ht="12.75">
       <c r="C959" s="2"/>
     </row>
-    <row r="960" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="3:3" ht="12.75">
       <c r="C960" s="2"/>
     </row>
-    <row r="961" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="3:3" ht="12.75">
       <c r="C961" s="2"/>
     </row>
-    <row r="962" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="3:3" ht="12.75">
       <c r="C962" s="2"/>
     </row>
-    <row r="963" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="3:3" ht="15.75" customHeight="1">
       <c r="C963" s="2"/>
     </row>
-    <row r="964" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="3:3" ht="15.75" customHeight="1">
       <c r="C964" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A9"/>
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A58"/>
     <mergeCell ref="A16:A19"/>
@@ -12874,11 +12889,6 @@
     <mergeCell ref="A20:A33"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A11:A15"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/06-최종산출물/api 정의서v0.5.xlsx
+++ b/06-최종산출물/api 정의서v0.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUIK\Documents\GitHub\KSA-final-project\06-최종산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9218AD30-30C5-4321-B677-BBDB7C9A54B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A666DD18-83DB-468D-8360-E2D18BD6D5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="258">
   <si>
     <t>Header</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Error</t>
-  </si>
-  <si>
-    <t>Main</t>
   </si>
   <si>
     <t>get</t>
@@ -88,14 +85,6 @@
   </si>
   <si>
     <t>deletePost</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>getChallenge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>getChallengeList</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -456,12 +445,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{
- Long userId: 2,
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>userSave</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -507,10 +490,6 @@
   </si>
   <si>
     <t>filterChallenge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>addCustom</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2776,62 +2755,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>뱃지</t>
     </r>
     <r>
@@ -3147,215 +3070,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>조회</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>공식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지목록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[
- {
-   Long ChallengeId : 1251
-   String title: 10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>완전금연</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,
-   date startDate: 2022-03-13-06-00,
-   date endDate: 2022-4-13-06-00,     Long max: 100,
-   String ChallengeImg: ../img/challenge/img/154.png
- }
-]</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>공식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>상세</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3910,146 +3624,6 @@
   </si>
   <si>
     <r>
-      <t>{
- Long userId: 22, 
- String challengeName: 30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>참기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,
- date startDate: 2022-03-12-06-00,
- date endDate: 2022-4-12-06-00,
- String punishment: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>소고기사기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,
- String description: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>한달</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>완전금연</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,
- String CustomImg: ../img/customchallenge/img/154.png
-}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -4144,147 +3718,6 @@
       </rPr>
       <t>요청</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>{
- Long userId: 22, 
- Long customChallengeId : 125
- String challengeName: 30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>참기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,
- date startDate: 2022-03-12-06-00,
- date endDate: 2022-4-12-06-00,
- String punishment: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>소고기사기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,
- String description: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>한달</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>완전금연</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,
- String CustomImg: ../img/customchallenge/img/154.png
-}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7487,19 +6920,231 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> {
-        "id": 1,
-        "userName": "uhmjunsik5",
-        "gender": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , int 2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카운트추가성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , int -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , int 3 = userName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중복</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , int 3 = userName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중복</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "id": 1,
+    "userName": "uhmjunsik523",
+    "gender": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>남</t>
     </r>
@@ -7512,18 +7157,17 @@
         <scheme val="minor"/>
       </rPr>
       <t>",
-        "birthYear": "1998-01-01",
-        "smokingYear": 20,
-        "comment": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+    "birthYear": "1998-01-01",
+    "smokingYear": 20,
+    "comment": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>끊겠읍니다</t>
     </r>
@@ -7536,90 +7180,30 @@
         <scheme val="minor"/>
       </rPr>
       <t>",
-        "price": 4500,
-        "averageSmoking": 20,
-        "ranking": 2,
-        "profileImg": "/src/abc.png",
-        "popupImg": "/src/abcd.png",
-        "point": 1500,
-        "badgeId": 2
-    }</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">int 1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록성공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , int 2 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>카운트추가성공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int -1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
+    "price": 4500,
+    "averageSmoking": 20,
+    "ranking": null,
+    "profileImg": "/src/abc.png",
+    "popupImg": "/src/abcd.png",
+    "point": null,
+    "badgeId": null
+}</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>{
-    "userName" : "uhmjunsik5",
+    "userName" : "uhmjunsik3",
     "gender" : "</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>남</t>
     </r>
@@ -7640,10 +7224,9 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>끊겠읍니다</t>
     </r>
@@ -7666,56 +7249,70 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">int 1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>성공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , int -1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>{
-    "userName" : "uhmjunsik5",
+    "userName" : "uhmjunsik52",
     "comment" : "</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>끊겠읍니다</t>
     </r>
@@ -7727,7 +7324,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2",
+      <t>",
     "profileImg" : "/src/abc.png",
     "popupImg" : "/src/abcd.png"
 }</t>
@@ -7736,6 +7333,758 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지목록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[
+    {
+        "id": 1,
+        "title": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+        "startDate": "2022-04-15T12:00:00",
+        "endDate": "2022-05-15T12:00:00",
+        "method": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일기작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+        "frequency": 3,
+        "description": "30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일동안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참으십쇼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+        "max": 100,
+        "img": "src/challnege/img"
+    }
+]</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "id": 1,
+    "title": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+    "startDate": "2022-04-15T12:00:00",
+    "endDate": "2022-05-15T12:00:00",
+    "method": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일기작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+    "frequency": 3,
+    "description": "30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일동안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참으십쇼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+    "max": 100,
+    "img": "src/challnege/img"
+}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAllChallenge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getChallengeById</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveCustom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "creatorId" : 2,
+    "title" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+    "startDate" : "2022-04-15-12-00",
+    "endDate" : "2022-05-15-12-00",
+    "method" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일기작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+    "frequency" : 3,
+    "description" : "30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일동안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참으십쇼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+    "max" : 100,
+    "img" : "src/challnege/img"
+}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "id": 1,
+    "creatorId": 2,
+    "title": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+    "startDate": "2022-04-15T12:00:00",
+    "endDate": "2022-05-15T12:00:00",
+    "method": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일기작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+    "frequency": 3,
+    "description": "30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일동안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참으십쇼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+    "max": 100,
+    "img": "src/challnege/img"
+}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateCustom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/custom/{customId}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>커스텀 챌린지 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "title" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+    "startDate" : "2022-04-15-12-00",
+    "endDate" : "2022-05-15-12-00",
+    "method" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일기작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+    "frequency" : 3,
+    "description" : "30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일동안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참으십쇼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+    "max" : 100,
+    "img" : "src/challnege/img"
+}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">int 1 = </t>
     </r>
     <r>
@@ -7756,7 +8105,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> , int 3 = userName </t>
+      <t xml:space="preserve"> , int -1 = </t>
     </r>
     <r>
       <rPr>
@@ -7766,26 +8115,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>중복</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int -1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>실패</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7812,27 +8141,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> , int 3 = userName </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중복</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int -1 = </t>
+      <t xml:space="preserve"> , int -1 = </t>
     </r>
     <r>
       <rPr>
@@ -7851,7 +8160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7962,6 +8271,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="15">
@@ -8321,7 +8637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8334,30 +8650,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8374,13 +8671,9 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8417,9 +8710,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8441,9 +8731,6 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8461,15 +8748,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8495,9 +8773,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8507,15 +8782,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8530,20 +8798,11 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8555,6 +8814,72 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8776,10 +9101,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N963"/>
+  <dimension ref="A1:N964"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8799,1548 +9124,1568 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="218.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F3" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="84"/>
+      <c r="B4" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="84"/>
+      <c r="B5" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="171" x14ac:dyDescent="0.2">
+      <c r="A6" s="71"/>
+      <c r="B6" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:14" s="3" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="71"/>
+      <c r="B7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="71"/>
+      <c r="B8" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:14" ht="161.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="1:14" ht="114" x14ac:dyDescent="0.2">
+      <c r="A11" s="77"/>
+      <c r="B11" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="77"/>
+      <c r="B12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="77"/>
+      <c r="B13" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="78"/>
+      <c r="B14" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="45"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:14" s="3" customFormat="1" ht="87.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="85" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:14" s="3" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+      <c r="A16" s="68"/>
+      <c r="B16" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="43"/>
+      <c r="J16" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="68"/>
+      <c r="B17" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="69"/>
+      <c r="B18" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" ht="192" x14ac:dyDescent="0.2">
+      <c r="A19" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="86" t="s">
+        <v>243</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" ht="163.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="71"/>
+      <c r="B20" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="86" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="52"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A21" s="71"/>
+      <c r="B21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="71"/>
+      <c r="B22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="71"/>
+      <c r="B23" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="71"/>
+      <c r="B24" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" ht="163.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="71"/>
+      <c r="B25" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="149.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="71"/>
+      <c r="B26" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" ht="177.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="71"/>
+      <c r="B27" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="1:11" ht="114" x14ac:dyDescent="0.2">
+      <c r="A28" s="71"/>
+      <c r="B28" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" s="16"/>
+    </row>
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="71"/>
+      <c r="B29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="16"/>
+      <c r="J29" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="71"/>
+      <c r="B30" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="1:11" s="3" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+      <c r="A31" s="71"/>
+      <c r="B31" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="71"/>
+      <c r="B32" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="1:14" ht="114" x14ac:dyDescent="0.2">
+      <c r="A33" s="75"/>
+      <c r="B33" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="16"/>
+      <c r="J33" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="53"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="1:14" ht="228" x14ac:dyDescent="0.2">
+      <c r="A35" s="71"/>
+      <c r="B35" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="1:14" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="71"/>
+      <c r="B36" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="I36" s="16"/>
+      <c r="J36" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="1:14" ht="228" x14ac:dyDescent="0.2">
+      <c r="A37" s="71"/>
+      <c r="B37" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="C37" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="71"/>
+      <c r="B38" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K38" s="16"/>
+    </row>
+    <row r="39" spans="1:14" s="3" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="71"/>
+      <c r="B39" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="D39" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="K39" s="16"/>
+    </row>
+    <row r="40" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="71"/>
+      <c r="B40" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="16"/>
+    </row>
+    <row r="41" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="71"/>
+      <c r="B41" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="16"/>
+    </row>
+    <row r="42" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="71"/>
+      <c r="B42" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="16"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="71"/>
+      <c r="B43" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="16"/>
+    </row>
+    <row r="44" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="16"/>
+    </row>
+    <row r="45" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+    </row>
+    <row r="46" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A46" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" s="16"/>
+      <c r="J46" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K46" s="16"/>
+    </row>
+    <row r="47" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="16"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="K47" s="16"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="228" x14ac:dyDescent="0.2">
+      <c r="A48" s="65"/>
+      <c r="B48" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="K48" s="16"/>
+    </row>
+    <row r="49" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="65"/>
+      <c r="B49" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="I49" s="59"/>
+      <c r="J49" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K49" s="16"/>
+    </row>
+    <row r="50" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="65"/>
+      <c r="B50" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="K4" s="18"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="D50" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" s="18"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="171" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="G50" s="16"/>
+      <c r="H50" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="I50" s="59"/>
+      <c r="J50" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K50" s="16"/>
+    </row>
+    <row r="51" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="66"/>
+      <c r="B51" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="I51" s="52"/>
+      <c r="J51" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K51" s="16"/>
+    </row>
+    <row r="52" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F52" s="13"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="K52" s="16"/>
+    </row>
+    <row r="53" spans="1:11" ht="228" x14ac:dyDescent="0.2">
+      <c r="A53" s="65"/>
+      <c r="B53" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="27" t="s">
+      <c r="G53" s="16"/>
+      <c r="H53" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="K53" s="16"/>
+    </row>
+    <row r="54" spans="1:11" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="65"/>
+      <c r="B54" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="16"/>
+      <c r="H54" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="I54" s="11"/>
+      <c r="J54" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="1:14" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="1:14" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="1:14" ht="114" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="K13" s="51"/>
-    </row>
-    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
-      <c r="B14" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="84" t="s">
-        <v>182</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84" t="s">
-        <v>248</v>
-      </c>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="K15" s="27"/>
-    </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" ht="114" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="57"/>
-      <c r="J16" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="K16" s="32"/>
-    </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
-      <c r="B18" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="62" t="s">
+      <c r="K54" s="16"/>
+    </row>
+    <row r="55" spans="1:11" ht="228" x14ac:dyDescent="0.2">
+      <c r="A55" s="65"/>
+      <c r="B55" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="1:11" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="K19" s="25"/>
-    </row>
-    <row r="20" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="K22" s="25"/>
-    </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="62" t="s">
+      <c r="G55" s="16"/>
+      <c r="H55" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="I55" s="11"/>
+      <c r="J55" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K55" s="16"/>
+    </row>
+    <row r="56" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="65"/>
+      <c r="B56" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="62" t="s">
+      <c r="G56" s="16"/>
+      <c r="H56" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" s="11"/>
+      <c r="J56" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K56" s="16"/>
+    </row>
+    <row r="57" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="65"/>
+      <c r="B57" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="25"/>
-    </row>
-    <row r="25" spans="1:11" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
-      <c r="B25" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" s="68" t="s">
-        <v>198</v>
-      </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="K25" s="25"/>
-    </row>
-    <row r="26" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="K26" s="25"/>
-    </row>
-    <row r="27" spans="1:11" ht="114" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="K27" s="25"/>
-    </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="K28" s="25"/>
-    </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" s="68" t="s">
-        <v>205</v>
-      </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="K29" s="25"/>
-    </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" ht="114" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="62" t="s">
+      <c r="G57" s="16"/>
+      <c r="H57" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="I57" s="11"/>
+      <c r="J57" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="K57" s="16"/>
+    </row>
+    <row r="58" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="65"/>
+      <c r="B58" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="K30" s="25"/>
-    </row>
-    <row r="31" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
-      <c r="B31" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="25"/>
-    </row>
-    <row r="32" spans="1:11" ht="114" x14ac:dyDescent="0.2">
-      <c r="A32" s="69"/>
-      <c r="B32" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="K32" s="25"/>
-    </row>
-    <row r="33" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="71"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="68" t="s">
-        <v>211</v>
-      </c>
-      <c r="K33" s="25"/>
-    </row>
-    <row r="34" spans="1:14" ht="228" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
-      <c r="B34" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="K34" s="25"/>
-    </row>
-    <row r="35" spans="1:14" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
-      <c r="B35" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H35" s="68" t="s">
-        <v>215</v>
-      </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="K35" s="25"/>
-    </row>
-    <row r="36" spans="1:14" ht="228" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" s="68" t="s">
-        <v>217</v>
-      </c>
-      <c r="I36" s="25"/>
-      <c r="J36" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="K36" s="25"/>
-    </row>
-    <row r="37" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
-      <c r="B37" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H37" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="I37" s="25"/>
-      <c r="J37" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="K37" s="25"/>
-    </row>
-    <row r="38" spans="1:14" s="3" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
-      <c r="B38" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H38" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="68" t="s">
-        <v>211</v>
-      </c>
-      <c r="K38" s="25"/>
-    </row>
-    <row r="39" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
-      <c r="B39" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="25"/>
-    </row>
-    <row r="40" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="25"/>
-    </row>
-    <row r="41" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
-      <c r="B41" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="25"/>
-    </row>
-    <row r="42" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
-      <c r="B42" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="25"/>
-    </row>
-    <row r="43" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="E43" s="25" t="s">
+      <c r="G58" s="16"/>
+      <c r="H58" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="I58" s="11"/>
+      <c r="J58" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="25"/>
-    </row>
-    <row r="44" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-    </row>
-    <row r="45" spans="1:14" ht="57" x14ac:dyDescent="0.2">
-      <c r="A45" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="I45" s="25"/>
-      <c r="J45" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="K45" s="25"/>
-    </row>
-    <row r="46" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="K46" s="25"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" ht="228" x14ac:dyDescent="0.2">
-      <c r="A47" s="78"/>
-      <c r="B47" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="I47" s="19"/>
-      <c r="J47" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="K47" s="25"/>
-    </row>
-    <row r="48" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="78"/>
-      <c r="B48" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" s="25"/>
-      <c r="H48" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="I48" s="79"/>
-      <c r="J48" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="K48" s="25"/>
-    </row>
-    <row r="49" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="78"/>
-      <c r="B49" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="68" t="s">
-        <v>232</v>
-      </c>
-      <c r="I49" s="79"/>
-      <c r="J49" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="K49" s="25"/>
-    </row>
-    <row r="50" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="80"/>
-      <c r="B50" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="I50" s="68"/>
-      <c r="J50" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="K50" s="25"/>
-    </row>
-    <row r="51" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="F51" s="20"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="K51" s="25"/>
-    </row>
-    <row r="52" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A52" s="78"/>
-      <c r="B52" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="I52" s="18"/>
-      <c r="J52" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="K52" s="25"/>
-    </row>
-    <row r="53" spans="1:11" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="78"/>
-      <c r="B53" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="I53" s="18"/>
-      <c r="J53" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="K53" s="25"/>
-    </row>
-    <row r="54" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A54" s="78"/>
-      <c r="B54" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G54" s="25"/>
-      <c r="H54" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="K54" s="25"/>
-    </row>
-    <row r="55" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="78"/>
-      <c r="B55" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G55" s="25"/>
-      <c r="H55" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="I55" s="18"/>
-      <c r="J55" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="K55" s="25"/>
-    </row>
-    <row r="56" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="78"/>
-      <c r="B56" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56" s="25"/>
-      <c r="H56" s="68" t="s">
-        <v>241</v>
-      </c>
-      <c r="I56" s="18"/>
-      <c r="J56" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="K56" s="25"/>
-    </row>
-    <row r="57" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="78"/>
-      <c r="B57" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G57" s="25"/>
-      <c r="H57" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="I57" s="18"/>
-      <c r="J57" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="K57" s="25"/>
-    </row>
-    <row r="58" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C58" s="2"/>
+      <c r="K58" s="16"/>
     </row>
     <row r="59" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C60" s="2"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C61" s="2"/>
@@ -10350,36 +10695,38 @@
     <row r="62" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="6"/>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C63" s="2"/>
       <c r="D63" s="4"/>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C64" s="2"/>
-      <c r="D64" s="5"/>
+      <c r="D64" s="4"/>
     </row>
     <row r="65" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C65" s="2"/>
-      <c r="D65" s="4"/>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C66" s="2"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
     </row>
     <row r="67" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C67" s="2"/>
-      <c r="D67" s="3"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
     </row>
     <row r="68" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C68" s="2"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="4"/>
+      <c r="D68" s="3"/>
     </row>
     <row r="69" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C69" s="2"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="4"/>
     </row>
     <row r="70" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C70" s="2"/>
@@ -13057,29 +13404,32 @@
     <row r="961" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C961" s="2"/>
     </row>
-    <row r="962" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C962" s="2"/>
     </row>
     <row r="963" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C963" s="2"/>
     </row>
+    <row r="964" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C964" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A19:A32"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A10:A14"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A10:A14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/06-최종산출물/api 정의서v0.5.xlsx
+++ b/06-최종산출물/api 정의서v0.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUIK\Documents\GitHub\KSA-final-project\06-최종산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A666DD18-83DB-468D-8360-E2D18BD6D5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00502F7-D892-4E4E-B384-1D5E1A6F7B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -896,377 +896,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이름</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>성별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>생년</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>흡연</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>년수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>코멘트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>담배</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>가격</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>랭킹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>프로필</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>사진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>동기부여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>팝업사진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>포인트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>뱃지아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>흡연횟수</t>
     </r>
     <r>
@@ -7134,66 +6763,6 @@
   <si>
     <r>
       <t>{
-    "id": 1,
-    "userName": "uhmjunsik523",
-    "gender": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>남</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
-    "birthYear": "1998-01-01",
-    "smokingYear": 20,
-    "comment": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>끊겠읍니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
-    "price": 4500,
-    "averageSmoking": 20,
-    "ranking": null,
-    "profileImg": "/src/abc.png",
-    "popupImg": "/src/abcd.png",
-    "point": null,
-    "badgeId": null
-}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
     "userName" : "uhmjunsik3",
     "gender" : "</t>
     </r>
@@ -8153,6 +7722,377 @@
       </rPr>
       <t>실패</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흡연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코멘트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>담배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>랭킹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로필</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동기부여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팝업사진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포인트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뱃지아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "averageSmoking": 0,
+  "badgeId": 0,
+  "birthYear": "2022-04-01",
+  "comment": "string",
+  "gender": "string",
+  "id": 0,
+  "point": 0,
+  "popupImg": "string",
+  "price": 0,
+  "profileImg": "string",
+  "ranking": 0,
+  "smokingYear": 0,
+  "userName": "string"
+}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -8637,7 +8577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8816,6 +8756,37 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8837,10 +8808,6 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8855,32 +8822,8 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9103,8 +9046,8 @@
   </sheetPr>
   <dimension ref="A1:N964"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9124,41 +9067,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79" t="s">
+      <c r="H1" s="67"/>
+      <c r="I1" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="82"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="8" t="s">
         <v>0</v>
       </c>
@@ -9175,9 +9118,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="218.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="83" t="s">
-        <v>238</v>
+    <row r="3" spans="1:14" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="72" t="s">
+        <v>237</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>151</v>
@@ -9186,10 +9129,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>161</v>
+        <v>232</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>256</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>119</v>
@@ -9200,13 +9143,13 @@
       <c r="H3" s="12"/>
       <c r="I3" s="11"/>
       <c r="J3" s="14" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="K3" s="11"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A4" s="84"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="15" t="s">
         <v>120</v>
       </c>
@@ -9217,7 +9160,7 @@
         <v>152</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>52</v>
@@ -9226,17 +9169,17 @@
         <v>70</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="84"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="15" t="s">
         <v>153</v>
       </c>
@@ -9247,7 +9190,7 @@
         <v>154</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>52</v>
@@ -9264,7 +9207,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="171" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="15" t="s">
         <v>121</v>
       </c>
@@ -9275,7 +9218,7 @@
         <v>125</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>52</v>
@@ -9291,7 +9234,7 @@
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="15" t="s">
         <v>103</v>
       </c>
@@ -9302,7 +9245,7 @@
         <v>126</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>79</v>
@@ -9315,12 +9258,12 @@
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:14" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="21" t="s">
         <v>96</v>
       </c>
@@ -9331,7 +9274,7 @@
         <v>127</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>79</v>
@@ -9344,7 +9287,7 @@
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K8" s="16"/>
     </row>
@@ -9362,7 +9305,7 @@
         <v>128</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>52</v>
@@ -9371,16 +9314,16 @@
         <v>70</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="85" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -9393,7 +9336,7 @@
         <v>62</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>58</v>
@@ -9409,7 +9352,7 @@
       <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:14" ht="114" x14ac:dyDescent="0.2">
-      <c r="A11" s="77"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="28" t="s">
         <v>63</v>
       </c>
@@ -9420,7 +9363,7 @@
         <v>64</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" s="32" t="s">
         <v>58</v>
@@ -9436,7 +9379,7 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="77"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="28" t="s">
         <v>73</v>
       </c>
@@ -9447,7 +9390,7 @@
         <v>69</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F12" s="32" t="s">
         <v>58</v>
@@ -9463,7 +9406,7 @@
       <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="77"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="35" t="s">
         <v>75</v>
       </c>
@@ -9474,7 +9417,7 @@
         <v>57</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>58</v>
@@ -9487,12 +9430,12 @@
       </c>
       <c r="I13" s="37"/>
       <c r="J13" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K13" s="40"/>
     </row>
     <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="78"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="28" t="s">
         <v>76</v>
       </c>
@@ -9503,7 +9446,7 @@
         <v>77</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F14" s="44" t="s">
         <v>58</v>
@@ -9514,12 +9457,12 @@
       <c r="H14" s="45"/>
       <c r="I14" s="63"/>
       <c r="J14" s="63" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" ht="87.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="78" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -9529,10 +9472,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="E15" s="85" t="s">
-        <v>241</v>
+        <v>232</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>239</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>79</v>
@@ -9541,16 +9484,16 @@
         <v>71</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" ht="114" x14ac:dyDescent="0.2">
-      <c r="A16" s="68"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="41" t="s">
         <v>83</v>
       </c>
@@ -9561,7 +9504,7 @@
         <v>84</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" s="44" t="s">
         <v>79</v>
@@ -9574,12 +9517,12 @@
       </c>
       <c r="I16" s="43"/>
       <c r="J16" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="15" t="s">
         <v>98</v>
       </c>
@@ -9590,7 +9533,7 @@
         <v>130</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>52</v>
@@ -9601,12 +9544,12 @@
       <c r="H17" s="12"/>
       <c r="I17" s="16"/>
       <c r="J17" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="15" t="s">
         <v>97</v>
       </c>
@@ -9617,7 +9560,7 @@
         <v>129</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F18" s="49"/>
       <c r="G18" s="50"/>
@@ -9627,11 +9570,11 @@
       <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" ht="192" x14ac:dyDescent="0.2">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="83" t="s">
         <v>105</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C19" s="48" t="s">
         <v>3</v>
@@ -9639,8 +9582,8 @@
       <c r="D19" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="86" t="s">
-        <v>243</v>
+      <c r="E19" s="65" t="s">
+        <v>241</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>52</v>
@@ -9651,14 +9594,14 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="163.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C20" s="48" t="s">
         <v>3</v>
@@ -9666,8 +9609,8 @@
       <c r="D20" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="86" t="s">
-        <v>245</v>
+      <c r="E20" s="65" t="s">
+        <v>243</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>52</v>
@@ -9678,12 +9621,12 @@
       <c r="H20" s="52"/>
       <c r="I20" s="16"/>
       <c r="J20" s="52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="15" t="s">
         <v>21</v>
       </c>
@@ -9694,7 +9637,7 @@
         <v>132</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>52</v>
@@ -9707,12 +9650,12 @@
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
@@ -9723,7 +9666,7 @@
         <v>133</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>52</v>
@@ -9732,16 +9675,16 @@
         <v>70</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="15" t="s">
         <v>104</v>
       </c>
@@ -9752,7 +9695,7 @@
         <v>134</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="11"/>
@@ -9762,7 +9705,7 @@
       <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="71"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="15" t="s">
         <v>106</v>
       </c>
@@ -9773,7 +9716,7 @@
         <v>135</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="11"/>
@@ -9783,9 +9726,9 @@
       <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:11" ht="163.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="71"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C25" s="48" t="s">
         <v>6</v>
@@ -9794,7 +9737,7 @@
         <v>136</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>52</v>
@@ -9803,27 +9746,27 @@
         <v>71</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K25" s="16"/>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" ht="149.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C26" s="48" t="s">
         <v>82</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="E26" s="87" t="s">
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="E26" s="66" t="s">
+        <v>252</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>52</v>
@@ -9832,16 +9775,16 @@
         <v>71</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="177.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="71"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="15" t="s">
         <v>107</v>
       </c>
@@ -9852,7 +9795,7 @@
         <v>137</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>52</v>
@@ -9863,12 +9806,12 @@
       <c r="H27" s="12"/>
       <c r="I27" s="16"/>
       <c r="J27" s="52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K27" s="16"/>
     </row>
     <row r="28" spans="1:11" ht="114" x14ac:dyDescent="0.2">
-      <c r="A28" s="71"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="15" t="s">
         <v>108</v>
       </c>
@@ -9879,7 +9822,7 @@
         <v>138</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>52</v>
@@ -9888,16 +9831,16 @@
         <v>70</v>
       </c>
       <c r="H28" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K28" s="16"/>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="71"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="15" t="s">
         <v>109</v>
       </c>
@@ -9908,7 +9851,7 @@
         <v>139</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>52</v>
@@ -9926,7 +9869,7 @@
       <c r="K29" s="16"/>
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="71"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="15" t="s">
         <v>110</v>
       </c>
@@ -9937,7 +9880,7 @@
         <v>140</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>91</v>
@@ -9946,16 +9889,16 @@
         <v>70</v>
       </c>
       <c r="H30" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K30" s="16"/>
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1" ht="114" x14ac:dyDescent="0.2">
-      <c r="A31" s="71"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="15" t="s">
         <v>111</v>
       </c>
@@ -9966,7 +9909,7 @@
         <v>140</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>52</v>
@@ -9979,12 +9922,12 @@
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K31" s="16"/>
     </row>
     <row r="32" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="71"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="15" t="s">
         <v>112</v>
       </c>
@@ -9995,7 +9938,7 @@
         <v>141</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="11"/>
@@ -10005,7 +9948,7 @@
       <c r="K32" s="16"/>
     </row>
     <row r="33" spans="1:14" ht="114" x14ac:dyDescent="0.2">
-      <c r="A33" s="75"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="15" t="s">
         <v>113</v>
       </c>
@@ -10016,7 +9959,7 @@
         <v>142</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>91</v>
@@ -10029,12 +9972,12 @@
       </c>
       <c r="I33" s="16"/>
       <c r="J33" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K33" s="16"/>
     </row>
     <row r="34" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="81" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -10047,7 +9990,7 @@
         <v>143</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>52</v>
@@ -10058,12 +10001,12 @@
       <c r="H34" s="53"/>
       <c r="I34" s="16"/>
       <c r="J34" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K34" s="16"/>
     </row>
     <row r="35" spans="1:14" ht="228" x14ac:dyDescent="0.2">
-      <c r="A35" s="71"/>
+      <c r="A35" s="74"/>
       <c r="B35" s="15" t="s">
         <v>100</v>
       </c>
@@ -10074,7 +10017,7 @@
         <v>144</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>52</v>
@@ -10087,12 +10030,12 @@
       </c>
       <c r="I35" s="16"/>
       <c r="J35" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K35" s="16"/>
     </row>
     <row r="36" spans="1:14" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="71"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="15" t="s">
         <v>101</v>
       </c>
@@ -10103,7 +10046,7 @@
         <v>145</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>52</v>
@@ -10112,16 +10055,16 @@
         <v>70</v>
       </c>
       <c r="H36" s="52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K36" s="16"/>
     </row>
     <row r="37" spans="1:14" ht="228" x14ac:dyDescent="0.2">
-      <c r="A37" s="71"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="15" t="s">
         <v>18</v>
       </c>
@@ -10132,7 +10075,7 @@
         <v>144</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>52</v>
@@ -10141,16 +10084,16 @@
         <v>70</v>
       </c>
       <c r="H37" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I37" s="16"/>
       <c r="J37" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K37" s="16"/>
     </row>
     <row r="38" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="71"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="15" t="s">
         <v>19</v>
       </c>
@@ -10161,7 +10104,7 @@
         <v>144</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>52</v>
@@ -10174,12 +10117,12 @@
       </c>
       <c r="I38" s="16"/>
       <c r="J38" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K38" s="16"/>
     </row>
     <row r="39" spans="1:14" s="3" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="71"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="15" t="s">
         <v>102</v>
       </c>
@@ -10190,7 +10133,7 @@
         <v>146</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>52</v>
@@ -10203,12 +10146,12 @@
       </c>
       <c r="I39" s="16"/>
       <c r="J39" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K39" s="16"/>
     </row>
     <row r="40" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="71"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="15" t="s">
         <v>114</v>
       </c>
@@ -10219,7 +10162,7 @@
         <v>147</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="11"/>
@@ -10229,7 +10172,7 @@
       <c r="K40" s="16"/>
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="71"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="15" t="s">
         <v>115</v>
       </c>
@@ -10240,7 +10183,7 @@
         <v>148</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="11"/>
@@ -10250,7 +10193,7 @@
       <c r="K41" s="16"/>
     </row>
     <row r="42" spans="1:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="71"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="15" t="s">
         <v>116</v>
       </c>
@@ -10261,7 +10204,7 @@
         <v>148</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="11"/>
@@ -10271,7 +10214,7 @@
       <c r="K42" s="16"/>
     </row>
     <row r="43" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="71"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="15" t="s">
         <v>117</v>
       </c>
@@ -10282,7 +10225,7 @@
         <v>149</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="11"/>
@@ -10305,7 +10248,7 @@
         <v>150</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="11"/>
@@ -10343,7 +10286,7 @@
         <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>52</v>
@@ -10354,12 +10297,12 @@
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K46" s="16"/>
     </row>
     <row r="47" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="64" t="s">
+      <c r="A47" s="75" t="s">
         <v>14</v>
       </c>
       <c r="B47" s="15" t="s">
@@ -10372,7 +10315,7 @@
         <v>34</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>52</v>
@@ -10381,7 +10324,7 @@
       <c r="H47" s="52"/>
       <c r="I47" s="12"/>
       <c r="J47" s="52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K47" s="16"/>
       <c r="L47" s="3"/>
@@ -10389,7 +10332,7 @@
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:14" ht="228" x14ac:dyDescent="0.2">
-      <c r="A48" s="65"/>
+      <c r="A48" s="76"/>
       <c r="B48" s="15" t="s">
         <v>85</v>
       </c>
@@ -10400,7 +10343,7 @@
         <v>86</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>52</v>
@@ -10411,12 +10354,12 @@
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K48" s="16"/>
     </row>
     <row r="49" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="65"/>
+      <c r="A49" s="76"/>
       <c r="B49" s="15" t="s">
         <v>25</v>
       </c>
@@ -10427,23 +10370,23 @@
         <v>35</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G49" s="16"/>
       <c r="H49" s="52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I49" s="59"/>
       <c r="J49" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K49" s="16"/>
     </row>
     <row r="50" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="65"/>
+      <c r="A50" s="76"/>
       <c r="B50" s="15" t="s">
         <v>26</v>
       </c>
@@ -10454,23 +10397,23 @@
         <v>36</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I50" s="59"/>
       <c r="J50" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K50" s="16"/>
     </row>
     <row r="51" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="66"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="15" t="s">
         <v>27</v>
       </c>
@@ -10481,7 +10424,7 @@
         <v>37</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="16"/>
@@ -10490,12 +10433,12 @@
       </c>
       <c r="I51" s="52"/>
       <c r="J51" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K51" s="16"/>
     </row>
     <row r="52" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="64" t="s">
+      <c r="A52" s="75" t="s">
         <v>15</v>
       </c>
       <c r="B52" s="15" t="s">
@@ -10508,19 +10451,19 @@
         <v>38</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="16"/>
       <c r="H52" s="52"/>
       <c r="I52" s="11"/>
       <c r="J52" s="52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K52" s="16"/>
     </row>
     <row r="53" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A53" s="65"/>
+      <c r="A53" s="76"/>
       <c r="B53" s="15" t="s">
         <v>48</v>
       </c>
@@ -10531,7 +10474,7 @@
         <v>50</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>52</v>
@@ -10542,12 +10485,12 @@
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K53" s="16"/>
     </row>
     <row r="54" spans="1:11" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="65"/>
+      <c r="A54" s="76"/>
       <c r="B54" s="15" t="s">
         <v>29</v>
       </c>
@@ -10558,23 +10501,23 @@
         <v>40</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K54" s="16"/>
     </row>
     <row r="55" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A55" s="65"/>
+      <c r="A55" s="76"/>
       <c r="B55" s="15" t="s">
         <v>30</v>
       </c>
@@ -10585,23 +10528,23 @@
         <v>41</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K55" s="16"/>
     </row>
     <row r="56" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="65"/>
+      <c r="A56" s="76"/>
       <c r="B56" s="15" t="s">
         <v>31</v>
       </c>
@@ -10612,7 +10555,7 @@
         <v>42</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>52</v>
@@ -10623,12 +10566,12 @@
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K56" s="16"/>
     </row>
     <row r="57" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="65"/>
+      <c r="A57" s="76"/>
       <c r="B57" s="15" t="s">
         <v>32</v>
       </c>
@@ -10639,23 +10582,23 @@
         <v>43</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K57" s="16"/>
     </row>
     <row r="58" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="65"/>
+      <c r="A58" s="76"/>
       <c r="B58" s="15" t="s">
         <v>33</v>
       </c>
@@ -10666,18 +10609,18 @@
         <v>44</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K58" s="16"/>
     </row>
@@ -13415,11 +13358,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A8"/>
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A58"/>
     <mergeCell ref="A15:A18"/>
@@ -13430,6 +13368,11 @@
     <mergeCell ref="A19:A33"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A10:A14"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
